--- a/DBA/Reportes BI/2021/Facturación/tipo_financiador.xlsx
+++ b/DBA/Reportes BI/2021/Facturación/tipo_financiador.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iachenbach\Gobierno de la Ciudad de Buenos Aires\Pablo Alfredo Gadea - Tablero Facoep P BI\FACOEP\DBA\Reportes BI\2021\Facturación\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="969">
   <si>
     <t>Financiador</t>
   </si>
@@ -242,7 +242,7 @@
     <t>FACOEP INCLUIR - FACOEP INCLUIR SALUD</t>
   </si>
   <si>
-    <t>Facoep PAMI/Incluir</t>
+    <t>Facoep Incluir</t>
   </si>
   <si>
     <t>FACOEP INCLUIR - FACTURACION Y COBRANZA DE LOS EFECTORES PUBLICOS S.E.</t>
@@ -254,6 +254,9 @@
     <t>FACOEP PAMI - FACOEP PAMI</t>
   </si>
   <si>
+    <t>Facoep PAMI</t>
+  </si>
+  <si>
     <t>FACOEP PAMI - FACTURACION Y COBRANZA DE LOS EFECTORES PUBLICOS S.E.</t>
   </si>
   <si>
@@ -2262,6 +2265,672 @@
   </si>
   <si>
     <t>ARGOS SEG - ARGOS COMPAÑÍA ARGENTINA DE SEGUROS GENERALES S.A.</t>
+  </si>
+  <si>
+    <t>OSTSAMPJBON - OBRA SOCIAL DE LOS TRABAJADORES SOCIOS DE LA ASOCIACION MUTUAL DEL PERSONAL JERARQUICO DE BANCOS OFICIALES NACIONAL</t>
+  </si>
+  <si>
+    <t>FIRST MEDICAL - FIRST MEDICAL S.R.L.</t>
+  </si>
+  <si>
+    <t>INCLUIR SALUD SANTA FE - INCLUIR SALUD SANTA FE</t>
+  </si>
+  <si>
+    <t>INCLUIR SALUD N - INCLUIR SALUD NEUQUEN</t>
+  </si>
+  <si>
+    <t>CEPRIMED - CEPRIMED CENTRO MEDICO PRIVADO</t>
+  </si>
+  <si>
+    <t>CPCE STA FE - CONSEJO PROFESIONAL DE CIENCIAS ECONOMICAS DE SANTA FE DSS</t>
+  </si>
+  <si>
+    <t>IMA - MARCOS HUGO LIBEDINSKY S - IMA - MARCOS HUGO LIBEDINSKY SA</t>
+  </si>
+  <si>
+    <t>INTEGRALMED S.A. - INTEGRALMED S.A.</t>
+  </si>
+  <si>
+    <t>HOLANDO - LA HOLANDO SUDAMERICANA COMPAÑÍA DE SEGUROS SOCIEDAD ANONIMA</t>
+  </si>
+  <si>
+    <t>PLAN NACER CC BS. AS. - PLAN NACER CARDIOPATIA CONGENITA BS. AS.</t>
+  </si>
+  <si>
+    <t>SANATORIO WILDE SISTEMA INTEGR - SANATORIO WILDE SISTEMA INTEGRAL DE SALUD S.A.</t>
+  </si>
+  <si>
+    <t>UNIMEDICA - COOPERATIVA DE TRABAJO MEDICO URUGUAY LIMITADA</t>
+  </si>
+  <si>
+    <t>MEDICINA ESENCIAL S.A. - MEDICINA ESENCIAL S.A.</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD NACIONAL DEL NORDE - UNIVERSIDAD NACIONAL DEL NORDESTE</t>
+  </si>
+  <si>
+    <t>AXA - ASSISTANCE ARGENTINA S.A.</t>
+  </si>
+  <si>
+    <t>DAMSU - DEPARTAMENTO DE ASISTENCIA MEDICO SOCIAL UNIVERSITARIA</t>
+  </si>
+  <si>
+    <t>SIGMA ASSISTEL - SIGMA ASSISTEL</t>
+  </si>
+  <si>
+    <t>ASSIST CARD S.A. DE SERVICIOS - ASSIST CARD S.A. DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>EUROAMERICA SEG - COMPAÑÍA DE SEGUROS EUROAMERICA SA</t>
+  </si>
+  <si>
+    <t>OSUNC - SERVICIOS DE OBRA SOCIAL UNIVERSIDAD NACIONAL COMAHUE</t>
+  </si>
+  <si>
+    <t>CAJA DE PREV. SOCIAL DE PROF. - CAJA DE PREV. SOCIAL DE PROF. DE ING. DE SANTA FE</t>
+  </si>
+  <si>
+    <t>CENI - CENI FUNDACION HOSPITALARIA</t>
+  </si>
+  <si>
+    <t>UNIV.ROSARIO - UNIVERSIDAD NACIONAL DE ROSARIO</t>
+  </si>
+  <si>
+    <t>OSEPC - OBRA SOCIAL DE EMPLEADOS DE PRENSA DE CORDOBA</t>
+  </si>
+  <si>
+    <t>OSMEBA - ASOCIACION MEDICA DEL NORTE</t>
+  </si>
+  <si>
+    <t>UNIVERSAL ASSISTANCE S.A. - UNIVERSAL ASSISTANCE S.A.</t>
+  </si>
+  <si>
+    <t>HOSP.PRIV.COM.M - HOSPITAL PRIVADO DE COMUNIDAD- FUNDACION MEDICA DE MAR DEL PLATA</t>
+  </si>
+  <si>
+    <t>COOP SEG LUZ Y - COOPERATIVA DE SEGUROS LUZ Y FUERZA LIMITADA</t>
+  </si>
+  <si>
+    <t>ASOC CIVIL DE ESTUDIOS SUPERIO - ASOC CIVIL DE ESTUDIOS SUPERIORES ACES AUSTRAL S.A.</t>
+  </si>
+  <si>
+    <t>MEDIN - MEDIN</t>
+  </si>
+  <si>
+    <t>MEDICAL CORPORATIVE TRADE S.A. - MEDICAL CORPORATIVE TRADE S.A.</t>
+  </si>
+  <si>
+    <t>RED DE SEGURO MEDICO S.R.L - RED DE SEGURO MEDICO S.R.L</t>
+  </si>
+  <si>
+    <t>TRANSPORTES SESENTA Y OCHO SRL - TRANSPORTES SESENTA Y OCHO SRL</t>
+  </si>
+  <si>
+    <t>UNO SALUD - UNO SALUD S.A.</t>
+  </si>
+  <si>
+    <t>INCLUIR SALUD SALTA - INCLUIR SALUD SALTA</t>
+  </si>
+  <si>
+    <t>INCLUIR SALUD LA RIOJA - INCLUIR SALUD LA RIOJA</t>
+  </si>
+  <si>
+    <t>AMAMP - ASOCIACION MUTUAL DE LA ASOCIACION MEDICA DE PERGAMINO</t>
+  </si>
+  <si>
+    <t>ACE SEG - ACE SEGUROS SA</t>
+  </si>
+  <si>
+    <t>APTM MUTUAL SERV SOC SEG PROD - APTM MUTUAL SERV SOC SEG PROD Y CONSUMO</t>
+  </si>
+  <si>
+    <t>CRUZ SUIZA SEG - CRUZ SUIZA COMPAÑIA DE SEGUROS DE VIDA Y SALUD SOCIEDAD ANONIMA</t>
+  </si>
+  <si>
+    <t>SINDICATO DE VENDEDORES DE DIA - SINDICATO DE VENDEDORES DE DIARIOS Y REVISTAS</t>
+  </si>
+  <si>
+    <t>METROPOLITAN LIFE SEGUROS DE V - METROPOLITAN LIFE SEGUROS DE VIDA SA</t>
+  </si>
+  <si>
+    <t>SALUD INTEGRAL - SALUD INTEGRAL S.R.L.</t>
+  </si>
+  <si>
+    <t>HOSPCENTENARIO - SOCIEDAD COOPERADORA DEL HOSPITAL CENTENARIO DE GUALEGUAYCHU</t>
+  </si>
+  <si>
+    <t>INCLUIR SALUD NEUQUEN - INCLUIR SALUD NEUQUEN</t>
+  </si>
+  <si>
+    <t>ASSI - ASSI SA</t>
+  </si>
+  <si>
+    <t>FEMEBA BA AS - FEMEBA FEDERACION MEDICA DE LA PROVINCIA DE BUENOS AIRES</t>
+  </si>
+  <si>
+    <t>PREV Y SEG SOC - CAJA DE PREVISION Y SEGURIDAD SOCIAL DE ABOGADOS Y PROCURADORES DE LA PROVINCIA DE CORDOBA</t>
+  </si>
+  <si>
+    <t>SIMEPA - SISTEMA MEDICA PAMPEANO</t>
+  </si>
+  <si>
+    <t>G7 SALUD S.A. (PLUS SALUD) - G7 SALUD S.A. (PLUS SALUD)</t>
+  </si>
+  <si>
+    <t>MICRO OMNIBUS NORTE S.A. - MICRO OMNIBUS NORTE S.A.</t>
+  </si>
+  <si>
+    <t>OSSOELSAC - OBRA SOCIAL DEL SINDICATO OBREROS Y EMPLEADOS DE EMPRESAS DE LIMPIEZA,SERVICIOS Y AFINES DE CORDOBA</t>
+  </si>
+  <si>
+    <t>CENTRO GALLEGO - CENTRO MEDICO GALLEGO</t>
+  </si>
+  <si>
+    <t>PREVINCIA SEG - PREVINCA SEGUROS SA</t>
+  </si>
+  <si>
+    <t>ASEG DE CRED - ASEGURADORA DE CREDITOS Y GARANTIAS S.A.</t>
+  </si>
+  <si>
+    <t>LA SEGUNDA SEG - LA SEGUNDA COOPERATIVA LIMITADA DE SEGUROS GENERALES</t>
+  </si>
+  <si>
+    <t>EMBAJ.ALEMANIA - EMBAJADA DE LA REPUBLICA FEDERAL DE ALEMANIA</t>
+  </si>
+  <si>
+    <t>GRUPO SAN NICOLAS S.R.L. - GRUPO SAN NICOLAS S.R.L.</t>
+  </si>
+  <si>
+    <t>OS DIR NAC VIAL - OBRA SOCIAL DIRECCION NACIONAL DE VIALIDAD</t>
+  </si>
+  <si>
+    <t>DIR ASIST MED U - DIRECCION GENERAL DE ASISTENCIA MEDICA SOCIAL UNIVERSITARIA SAN JUAN</t>
+  </si>
+  <si>
+    <t>CIRCULO OFICIALES DE MAR - CIRCULO OFICIALES DE MAR</t>
+  </si>
+  <si>
+    <t>SIS - SISTEMAS INTEGRADOS DE SALUD</t>
+  </si>
+  <si>
+    <t>FORTABAT DIRECC - OBRA SOCIAL DEL PERSONAL DE DIRECCION ALFREDO FORTABAT</t>
+  </si>
+  <si>
+    <t>MEDICINA ALTA COMPETENCIA S.A. - MEDICINA ALTA COMPETENCIA S.A.</t>
+  </si>
+  <si>
+    <t>SPS SALUD - SPS SALUD SRL</t>
+  </si>
+  <si>
+    <t>EMB. BRITANICA - EMBAJADA BRITANICA</t>
+  </si>
+  <si>
+    <t>FEDERACION DE CIRCULOS CATOLIC - FEDERACION DE CIRCULOS CATOLICOS DE OBREROS</t>
+  </si>
+  <si>
+    <t>MEDIC - MEDIC SALUD</t>
+  </si>
+  <si>
+    <t>OBRA SOCIAL DEL - OBRA SOCIAL DEL PERSONAL DE LA UNIVERSIDAD NACIONAL DE LA PATAGONIA SAN JUAN BOSCO</t>
+  </si>
+  <si>
+    <t>DOSEM - OBRA SOCIAL PERSONAL MUNICIPAL BAHIA BLANCA</t>
+  </si>
+  <si>
+    <t>INST SEGUROS - INSTITUTO DE SEGUROS SA</t>
+  </si>
+  <si>
+    <t>FECLIBA - FEDERACION DE CLINICAS SANATORIOS HOSPITALES Y OTROS ESTABLECIMIENTOS DE LA PROVINCIA DE BUENOS AIRES</t>
+  </si>
+  <si>
+    <t>LIDERAR ART - ASEGURADORA DE RIESGOS DEL TRABAJO LIDERAR S.A.</t>
+  </si>
+  <si>
+    <t>CTRO MEDICO DE - CENTRO MEDICO DE MAR DEL PLATA</t>
+  </si>
+  <si>
+    <t>GOB PCIA STA FE - GOBIERNO DE LA PROVINCIA DE SANTA FE</t>
+  </si>
+  <si>
+    <t>CONFERENCIA EPISCOPAL ARGENTIN - CONFERENCIA EPISCOPAL ARGENTINA</t>
+  </si>
+  <si>
+    <t>AMSCA - AMSCA ASOCIACION MUTUAL SOCIEDAD CENTRAL DE ARQUITECTOS</t>
+  </si>
+  <si>
+    <t>MINISTERIO DE ASUNTOS SOCIALES - MINISTERIO DE ASUNTOS SOCIALES SANTA CRUZ</t>
+  </si>
+  <si>
+    <t>OSPAILE - OBRA SOCIAL DEL PERSONAL DEL AZUCAR INGENIO LA ESPERANZA</t>
+  </si>
+  <si>
+    <t>CARUSO CIA ARGENTINA DE SEGURO - CARUSO CIA ARGENTINA DE SEGUROS S.A.</t>
+  </si>
+  <si>
+    <t>ADOS ROSARIO - ASOCIACION DE OBRAS SOCIALES DE ROSARIO</t>
+  </si>
+  <si>
+    <t>CAJA POP PROV - CAJA POPULAR DE AHORROS DE LA PROVINCIA DE TUCUMAN</t>
+  </si>
+  <si>
+    <t>CRUZ HECTOR WILLIAN - CRUZ HECTOR WILLIAN</t>
+  </si>
+  <si>
+    <t>OS PBBPOLISUR - OBRA SOCIAL DEL PERSONAL DE PBBPOLISUR SA DE BAHIA BLANCA</t>
+  </si>
+  <si>
+    <t>SMG LIFE SEGUROS DE VIDA SA - SMG LIFE SEGUROS DE VIDA SA</t>
+  </si>
+  <si>
+    <t>ACTIM - ASOCIACION DE CAMPESINOS TABACALEROS INDEPENDIENTES DE MISIONES</t>
+  </si>
+  <si>
+    <t>GLOBAL SECURITY S.R.L. - GLOBAL SECURITY S.R.L.</t>
+  </si>
+  <si>
+    <t>OMA - ORGANIZACIÓN MEDICA ASISTENCIAL</t>
+  </si>
+  <si>
+    <t>OS IND GRAFICA - OBRA SOCIAL DEL PERSONAL DE LA INDUSTRIA GRAFICA DE LA PROVINCIA DE CORDOBA</t>
+  </si>
+  <si>
+    <t>OCASA - OCASA ORGANIZACIÓN CLERING ARGENTINA</t>
+  </si>
+  <si>
+    <t>HOSPITAL ITALIANO GARIBALDI - - HOSPITAL ITALIANO GARIBALDI - ITALMEDIC</t>
+  </si>
+  <si>
+    <t>OSAPMER - OBRA SOCIAL DE AGENTES DE PROPAGANDA MEDICA DE ENTRE RIOS</t>
+  </si>
+  <si>
+    <t>CAJA SEG - CAJA DE SEGUROS SA</t>
+  </si>
+  <si>
+    <t>ALLIANZ WORLDWIDE PARTNERS S.A - ALLIANZ WORLDWIDE PARTNERS S.A.S.</t>
+  </si>
+  <si>
+    <t>A.M.U.R - ASOCIACION MUTUAL RURALISTA</t>
+  </si>
+  <si>
+    <t>EUROSALUD - EUROSALUD</t>
+  </si>
+  <si>
+    <t>ASOCIACION DE OBRAS SOCIALES D - ASOCIACION DE OBRAS SOCIALES DE ESPERANZA</t>
+  </si>
+  <si>
+    <t>CIRME - CIRME SALUD ENTRE RIOS CONSORCIO DE COOPERACION</t>
+  </si>
+  <si>
+    <t>CONINTEM - CONINTEM S.A.</t>
+  </si>
+  <si>
+    <t>COPAN SEG - COPAN COOPERATIVA DE SEGUROS LIMITADA</t>
+  </si>
+  <si>
+    <t>CUD MEDICINA MU - CUD MEDICINA MUTUAL(CENTRO UNION DEPENDIENTES)</t>
+  </si>
+  <si>
+    <t>DELEGACION METROPOLITANA S.A - DELEGACION METROPOLITANA S.A.</t>
+  </si>
+  <si>
+    <t>EMBAJADA DE EEU - EMBAJADA DE LOS ESTADOS UNIDOS</t>
+  </si>
+  <si>
+    <t>FUSAL - FUSAL FUNDACION PARA LA PROMOCION DE LA SALUD</t>
+  </si>
+  <si>
+    <t>INCLUIR SALUD CHACO - INCLUIR SALUD CHACO</t>
+  </si>
+  <si>
+    <t>PRIMERO MEDICINA PRIVADA - PRIMERO MEDICINA PRIVADA</t>
+  </si>
+  <si>
+    <t>MAPFRE VIDA ACO - MAPFRE ACONCAGUA VIDA COMPAÑIA DE SEGUROS S.A.</t>
+  </si>
+  <si>
+    <t>ASOCIACION MEDICA FEDERAL - ASOCIACION MEDICA FEDERAL</t>
+  </si>
+  <si>
+    <t>OS MUNI M DEL P - OBRA SOCIAL MUTUAL DE AGENTES MUNICIPALES DE MAR DEL PLATA</t>
+  </si>
+  <si>
+    <t>OS PRENSA B BL - OBRA SOCIAL DEL PERSONAL DE PRENSA DE BAHIA BLANCA</t>
+  </si>
+  <si>
+    <t>METROPOL SEG HA - METROPOL SOCIEDAD DE SEGUROS MUTUOS</t>
+  </si>
+  <si>
+    <t>MUT 25 DE MAYO - MUTUAL 25 DE MAYO</t>
+  </si>
+  <si>
+    <t>OSA AERONAVEGA - OBRA SOCIAL DE AERONAVEGANTES</t>
+  </si>
+  <si>
+    <t>PRINC.PLAN - PRINCIPAL PLAN</t>
+  </si>
+  <si>
+    <t>MIN.PUB.FISCAL - MINISTERIO PUBLICO FISCAL DE LA NACION</t>
+  </si>
+  <si>
+    <t>EMPRESA DE TRANSP. TTE. GRAL. - EMPRESA DE TRANSP. TTE. GRAL. ROCA SA</t>
+  </si>
+  <si>
+    <t>MEDICET - CORPOMEDICIN SALUD (MEDICET S.A.)</t>
+  </si>
+  <si>
+    <t>SEMESA - Servicios Medicos Sarmiento</t>
+  </si>
+  <si>
+    <t>AMERICAN HOME S - AMERICAN HOME ASSURANCE COMPANY</t>
+  </si>
+  <si>
+    <t>COSENA SEG - COSENA SEGUROS SA</t>
+  </si>
+  <si>
+    <t>GERMED S.A. (LA PEQUEÑA FAMILI - GERMED S.A. (LA PEQUEÑA FAMILIA MEDICINA PREPAGA)</t>
+  </si>
+  <si>
+    <t>COL MED - COL MED S.R.L.</t>
+  </si>
+  <si>
+    <t>O.S.PE.COR - OBRA SOCIAL DE PETROLEROS DE CORDOBA</t>
+  </si>
+  <si>
+    <t>AME - ASOCIACION MEDICA EMPRESARIA SRL</t>
+  </si>
+  <si>
+    <t>INTEGRAL GROUP SOLUTION S.A. - INTEGRAL GROUP SOLUTION S.A.</t>
+  </si>
+  <si>
+    <t>MUTUAL ACINDAR SALUD - MUTUAL ACINDAR SALUD</t>
+  </si>
+  <si>
+    <t>MAPFRE ACONCAGUA ART SA - MAPFRE ACONCAGUA ART SA</t>
+  </si>
+  <si>
+    <t>ASOCIACION MUTUAL DAN - ASOCIACION MUTUAL DAN</t>
+  </si>
+  <si>
+    <t>OMSA -PROSAL S.A. - OMSA -PROSAL S.A.</t>
+  </si>
+  <si>
+    <t>MUNI STGO ESTER - OBRA SOCIAL MUNICIPAL PARA EL PERSONAL DE LA MUNICIPALIDAD DE SANTIAGO DEL ESTERO</t>
+  </si>
+  <si>
+    <t>TIEMPOMEDICO - TIEMPO MEDICO - UNIMED S.R.L.</t>
+  </si>
+  <si>
+    <t>BBVA SEG - BBVA SEGUROS</t>
+  </si>
+  <si>
+    <t>FENTPEA - FEDERACION NACIONAL DE TRABAJADORES DE PELUQUERIA ESTETICA Y AFINES</t>
+  </si>
+  <si>
+    <t>AMM OESTE - ASOCIACION MUTUAL MEDICA DEL OESTE</t>
+  </si>
+  <si>
+    <t>AFA SA - ASEGURADORA FEDERAL ARGENTINA S.A.</t>
+  </si>
+  <si>
+    <t>- COLEGIO DE ESCRIBANOS</t>
+  </si>
+  <si>
+    <t>O.S. PERS. DE U - O.S. PERS. DE UNIV. NAC. DEL CENTRO DE PROV BS AS.</t>
+  </si>
+  <si>
+    <t>GRUP D.D.M. - GRUPO D.D.M. S.A</t>
+  </si>
+  <si>
+    <t>OSCCA - OBRA SOCIAL CORPORACION CEMENTERA ARGENTINA</t>
+  </si>
+  <si>
+    <t>INTERACCION S.A. ART - INTERACCION S.A. ART</t>
+  </si>
+  <si>
+    <t>REDSAL - REDSAL S.A.</t>
+  </si>
+  <si>
+    <t>NATIVA SEG - NATIVA COMPAÑÍA ARGENTINA DE SEGUROS S.A.</t>
+  </si>
+  <si>
+    <t>AZUL SA DE TRANSPORTE AUTOMOTO - AZUL SA DE TRANSPORTE AUTOMOTOR</t>
+  </si>
+  <si>
+    <t>MUN. DE AVELLANEDA - SEC. POL. - MUN. DE AVELLANEDA - SEC. POL. SOC. Y DES. HUMANO</t>
+  </si>
+  <si>
+    <t>LINEA DE MICROOMNIBUS 47 S.A. - LINEA DE MICROOMNIBUS 47 S.A.</t>
+  </si>
+  <si>
+    <t>INCLUIR SALUD SAN JUAN - INCLUIR SALUD SAN JUAN</t>
+  </si>
+  <si>
+    <t>SANAT PARQUE - SANATORIO PARQUE</t>
+  </si>
+  <si>
+    <t>CENTRO MED STA - CENTRO MEDICO SANTA ISABEL</t>
+  </si>
+  <si>
+    <t>COBERTURAS FAMILIARES COMPLEME - COBERTURAS FAMILIARES COMPLEMENTARIAS S.R.L.</t>
+  </si>
+  <si>
+    <t>HORIZONTE SEG - HORIZONTE COMPAÑIA ARGENTINA DE SEGUROS GENERALES S.A.</t>
+  </si>
+  <si>
+    <t>AFIP - ADMINISTRACION FEDERAL DE INGRESOS PUBLICOS</t>
+  </si>
+  <si>
+    <t>HEALTH MEDICAL SA - HEALTH MEDICAL SA</t>
+  </si>
+  <si>
+    <t>Asociación Mutu - Asociación Mutual de Salud de Ciudadela</t>
+  </si>
+  <si>
+    <t>UNIDAD DE GESTIO OPERATIVA FER - UNIDAD DE GESTIO OPERATIVA FERROVIARIA DE EMERGENC</t>
+  </si>
+  <si>
+    <t>CELULOSA - CELULOSA ARGENTINA</t>
+  </si>
+  <si>
+    <t>ARGENTINA SALUD - ARGENTINA SALUD Y VIDA COMPAÑIA DE SEGUROS SA</t>
+  </si>
+  <si>
+    <t>SU MEDICINA ASI - SU MEDICINA ASISTENCIAL S.A</t>
+  </si>
+  <si>
+    <t>OBRA SOCIAL DE - OBRA SOCIAL DE ALLIED DOMECQ ARGENTINA S.A.</t>
+  </si>
+  <si>
+    <t>COBERTURA DE SA - COBERTURA DE SALUD SA</t>
+  </si>
+  <si>
+    <t>OSPRO - OBRA SOCIAL DEL PERSONAL DE PRENSA DE ROSARIO</t>
+  </si>
+  <si>
+    <t>MAPFRE ACONCAGU - MAPFRE ACONCAGUA ART SA</t>
+  </si>
+  <si>
+    <t>COOP MUT PATRON - COOPERACION MUTUAL PATRONAL</t>
+  </si>
+  <si>
+    <t>ATM SEGUROS - ASISTENCIA TOTAL PARA MOTO VEHICULOS</t>
+  </si>
+  <si>
+    <t>0 - OBRA SOCIAL DE DIRECCION WITCEL</t>
+  </si>
+  <si>
+    <t>- OMSA -PROSAL S.A.</t>
+  </si>
+  <si>
+    <t>CAJA PREV - CAJA DE PREVISION Y SEGURO MEDICO DE LA PROVINCIA DE BUENOS AIRES</t>
+  </si>
+  <si>
+    <t>FEMEBA PILAR - FEMEBA SALUD PILAR</t>
+  </si>
+  <si>
+    <t>PLUS MEDICAL - PLUS MEDICAL</t>
+  </si>
+  <si>
+    <t>MIM - MIM S.A. MEDICINA INTEGRAL METROPOLITANA</t>
+  </si>
+  <si>
+    <t>CEMEP - CLINICA DE ESPECIALIDADES MEDICAS PRIVADAS SRL</t>
+  </si>
+  <si>
+    <t>ASIST DE SALUD - ASISTENCIA DE SALUD SRL</t>
+  </si>
+  <si>
+    <t>SENTIR SEGUROS - SENTIR SEGUROS SOCIEDAD ANONIMA</t>
+  </si>
+  <si>
+    <t>ASIST DE SALUD - ASISTENCIA DE SALUD SA</t>
+  </si>
+  <si>
+    <t>OSTES - OBRA SOCIAL DE TRABAJADORES DE ESTACIONES DE SERVICIO DE MENDOZA</t>
+  </si>
+  <si>
+    <t>HOSPITAL ITALIA - HOSPITAL ITALIANO GARIBALDI - ITALMEDIC</t>
+  </si>
+  <si>
+    <t>UNIVASSIS - UNIVERSAL ASSISTANCE SA</t>
+  </si>
+  <si>
+    <t>HTAL. ESCUELA G - HTAL. ESCUELA GRAL. J. DE SAN MARTIN CORRIENTES</t>
+  </si>
+  <si>
+    <t>INCLUIRSTACRUZ - INCLUIR SALUD SANTA CRUZ</t>
+  </si>
+  <si>
+    <t>INCLUIRFORMOSA - INCLUIR SALUD FORMOSA</t>
+  </si>
+  <si>
+    <t>INCLUIRCHUBUT - INCLUIR SALUD CHUBUT</t>
+  </si>
+  <si>
+    <t>MIN DES HUM SAN - MINISTERIO DE DESARROLLO HUMANO Y PROMOCION SOCIAL DE LA PCIA. DE SAN JUAN</t>
+  </si>
+  <si>
+    <t>MASSLIFE SEG - MASSLIFE SEGUROS DE VIDA SA</t>
+  </si>
+  <si>
+    <t>MAPFRE - MAPFRE ACONCAGUA ART SA</t>
+  </si>
+  <si>
+    <t>- AUSTRAL MEDICA S.A.</t>
+  </si>
+  <si>
+    <t>CTRO.MED.MONDE - CENTRO MEDICO MONDE GRAN S.A.</t>
+  </si>
+  <si>
+    <t>EL PROG AGRICOLA DE PIGUE,COOP - EL PROG AGRICOLA DE PIGUE,COOP LTD VIVIENDA CRED</t>
+  </si>
+  <si>
+    <t>OSPA AERONAUTIC - OBRA SOCIAL DEL PERSONAL AERONAUTICO</t>
+  </si>
+  <si>
+    <t>EUROSALUD S.A. - EUROSALUD S.A.</t>
+  </si>
+  <si>
+    <t>Asistencia sani - Asistencia sanitaria integral S.A</t>
+  </si>
+  <si>
+    <t>OSPA - OBRA SOCIAL DE PORTUARIOS ARGENTINOS DE MAR DEL PLATA</t>
+  </si>
+  <si>
+    <t>AUTOPISTAS URBA - AUTOPISTAS URBANAS S A</t>
+  </si>
+  <si>
+    <t>TOTAL MEDICA - TOTAL MEDICA S.A.</t>
+  </si>
+  <si>
+    <t>IMA - MARCOS HU - IMA - MARCOS HUGO LIBEDINSKY SA</t>
+  </si>
+  <si>
+    <t>O.S.S.U.R.R.B.A.C - OBRA SOCIAL DEL SINDICATO UNICO DE RECOLECTORES DE RESIDUOS Y BARRIDO DE CORDOBA</t>
+  </si>
+  <si>
+    <t>FEDMEDCHACO - FEDERACION MEDICA DEL CHACO</t>
+  </si>
+  <si>
+    <t>QUORUM - QUORUM MEDICINA FAMILIAR S.A</t>
+  </si>
+  <si>
+    <t>ADOS CORRIENTES - ASOCIACION DE OBRAS SOCIALES BELLA VISTA</t>
+  </si>
+  <si>
+    <t>COMPLEJO SANITARIO SAN LUIS - COMPLEJO SANITARIO SAN LUIS</t>
+  </si>
+  <si>
+    <t>AMP - ASOCIACION MUTUAL POLICIA DE FORMOSA</t>
+  </si>
+  <si>
+    <t>ACEROS PARANA - OBRA SOCIAL ACEROS PARANA Y EMPRESAS ANTECESORAS</t>
+  </si>
+  <si>
+    <t>MEDICALS - MEDICAL'S ORGANIZACION DE PRESTACIONES MEDICAS PRIVADAS S.A.</t>
+  </si>
+  <si>
+    <t>HELIOS - HELIOS SALUD</t>
+  </si>
+  <si>
+    <t>SANAT COLEGIALE - SANATORIO COLEGIALES</t>
+  </si>
+  <si>
+    <t>TRANSPORTES SES - TRANSPORTES SESENTA Y OCHO SRL</t>
+  </si>
+  <si>
+    <t>SOCIEDAD ITALIANA DE SOCORROS - SOCIEDAD ITALIANA DE SOCORROS MUTUOS (Nueva Clínica Chacabuco)</t>
+  </si>
+  <si>
+    <t>LIDERAR SEG - LIDERAR COMPAÑIA GENERAL DE SEGUROS S.A.</t>
+  </si>
+  <si>
+    <t>ASSISTANT - ASSISTANT</t>
+  </si>
+  <si>
+    <t>CNA ART - CNA ART</t>
+  </si>
+  <si>
+    <t>ESCRIBANOS M DE - COLEGIO DE ESCRIBANOS DELEG. MAR DEL PLATA</t>
+  </si>
+  <si>
+    <t>OSPIP - OBRA SOCIAL DEL PERSONAL DE LA INDUSTRIA PETROQUIMICA</t>
+  </si>
+  <si>
+    <t>ALBA SEG - ALBA COMPAÑÍA ARGENTINA DE SEGUROS S.A.</t>
+  </si>
+  <si>
+    <t>UNIDAD DE GESTION OPERATIVA MI - UNIDAD DE GESTION OPERATIVA MITRE SARMIENTO S.A.</t>
+  </si>
+  <si>
+    <t>FARMACIA LA ESTRELLA SRL - FARMACIA LA ESTRELLA SRL</t>
+  </si>
+  <si>
+    <t>AMBB - ASOCIACION MEDICA BAHIA BLANCA</t>
+  </si>
+  <si>
+    <t>GENERALI ARGENTINA COMPANIA DE - GENERALI ARGENTINA COMPANIA DE SEGUROS S.A</t>
+  </si>
+  <si>
+    <t>CASCOTERA VELEZ SARFIELD S.A. - CASCOTERA VELEZ SARFIELD S.A.</t>
+  </si>
+  <si>
+    <t>CLINICA LOS CED - CLINICA LOS CEDROS SA</t>
+  </si>
+  <si>
+    <t>EMBAJ.URUGUAY - EMBAJADA DE LA REP ORIENTAL DEL URUGUAY</t>
+  </si>
+  <si>
+    <t>Sgo del Estero - GOB.DE LA PCIA.DE SGO.DEL ESTERO TESORERIA GENERAL</t>
+  </si>
+  <si>
+    <t>COMI - COMI SALUD COOPERATIVA LTDA.</t>
+  </si>
+  <si>
+    <t>ATANOR - OBRA SOCIAL ATANOR S.A.</t>
+  </si>
+  <si>
+    <t>COLEGIO DE ESCRIBANOS</t>
   </si>
 </sst>
 </file>
@@ -2340,92 +3009,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFB9B8B8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2436,17 +3026,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tipo_financiador" displayName="tipo_financiador" ref="A1:B760" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:B760"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Financiador" dataDxfId="1"/>
-    <tableColumn id="2" name="Tipo Cobertura" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2495,9 +3074,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2530,9 +3109,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2712,16 +3291,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B760"/>
+  <dimension ref="A1:B1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B760"/>
+      <selection activeCell="B10" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="156.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="145.42578125" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3297,20 +3876,20 @@
         <v>75</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>5</v>
@@ -3318,7 +3897,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>5</v>
@@ -3326,7 +3905,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>5</v>
@@ -3334,7 +3913,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>5</v>
@@ -3342,7 +3921,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>5</v>
@@ -3350,7 +3929,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>5</v>
@@ -3358,7 +3937,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>5</v>
@@ -3366,7 +3945,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>5</v>
@@ -3374,7 +3953,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>5</v>
@@ -3382,7 +3961,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>5</v>
@@ -3390,7 +3969,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>5</v>
@@ -3398,7 +3977,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>5</v>
@@ -3406,7 +3985,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>5</v>
@@ -3414,7 +3993,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>5</v>
@@ -3422,7 +4001,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>5</v>
@@ -3430,7 +4009,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>5</v>
@@ -3438,7 +4017,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>5</v>
@@ -3446,7 +4025,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>5</v>
@@ -3454,7 +4033,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>5</v>
@@ -3462,7 +4041,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>5</v>
@@ -3470,7 +4049,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>5</v>
@@ -3478,7 +4057,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>5</v>
@@ -3486,7 +4065,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>5</v>
@@ -3494,7 +4073,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>5</v>
@@ -3502,7 +4081,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>5</v>
@@ -3510,7 +4089,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>5</v>
@@ -3518,7 +4097,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>3</v>
@@ -3526,7 +4105,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>3</v>
@@ -3534,7 +4113,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>3</v>
@@ -3542,7 +4121,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>3</v>
@@ -3550,7 +4129,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>3</v>
@@ -3558,7 +4137,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>3</v>
@@ -3566,7 +4145,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>3</v>
@@ -3574,7 +4153,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>3</v>
@@ -3582,7 +4161,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>3</v>
@@ -3590,7 +4169,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>3</v>
@@ -3598,7 +4177,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>3</v>
@@ -3606,7 +4185,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>3</v>
@@ -3614,7 +4193,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>3</v>
@@ -3622,7 +4201,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>3</v>
@@ -3630,7 +4209,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>3</v>
@@ -3638,7 +4217,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>3</v>
@@ -3646,7 +4225,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>3</v>
@@ -3654,7 +4233,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>3</v>
@@ -3662,7 +4241,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>3</v>
@@ -3670,7 +4249,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>3</v>
@@ -3678,7 +4257,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>3</v>
@@ -3686,7 +4265,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>3</v>
@@ -3694,7 +4273,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>3</v>
@@ -3702,7 +4281,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>3</v>
@@ -3710,7 +4289,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>3</v>
@@ -3718,7 +4297,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>3</v>
@@ -3726,7 +4305,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>3</v>
@@ -3734,7 +4313,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>3</v>
@@ -3742,7 +4321,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>3</v>
@@ -3750,7 +4329,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>3</v>
@@ -3758,7 +4337,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>3</v>
@@ -3766,7 +4345,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>3</v>
@@ -3774,7 +4353,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>3</v>
@@ -3782,7 +4361,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>3</v>
@@ -3790,7 +4369,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>3</v>
@@ -3798,7 +4377,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>3</v>
@@ -3806,7 +4385,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>3</v>
@@ -3814,15 +4393,15 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>5</v>
@@ -3830,7 +4409,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>5</v>
@@ -3838,7 +4417,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>5</v>
@@ -3846,7 +4425,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>5</v>
@@ -3854,7 +4433,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>5</v>
@@ -3862,7 +4441,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>5</v>
@@ -3870,7 +4449,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>5</v>
@@ -3878,7 +4457,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>5</v>
@@ -3886,7 +4465,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>5</v>
@@ -3894,7 +4473,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>5</v>
@@ -3902,7 +4481,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>5</v>
@@ -3910,7 +4489,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>5</v>
@@ -3918,7 +4497,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>5</v>
@@ -3926,7 +4505,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>5</v>
@@ -3934,7 +4513,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>5</v>
@@ -3942,7 +4521,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>5</v>
@@ -3950,7 +4529,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>5</v>
@@ -3958,7 +4537,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>5</v>
@@ -3966,7 +4545,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>5</v>
@@ -3974,7 +4553,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>5</v>
@@ -3982,7 +4561,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>5</v>
@@ -3990,7 +4569,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>5</v>
@@ -3998,7 +4577,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>5</v>
@@ -4006,7 +4585,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>5</v>
@@ -4014,7 +4593,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>5</v>
@@ -4022,7 +4601,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>5</v>
@@ -4030,7 +4609,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>5</v>
@@ -4038,7 +4617,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>5</v>
@@ -4046,7 +4625,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>5</v>
@@ -4054,7 +4633,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>5</v>
@@ -4062,7 +4641,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>5</v>
@@ -4070,7 +4649,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>5</v>
@@ -4078,7 +4657,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>5</v>
@@ -4086,7 +4665,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>5</v>
@@ -4094,7 +4673,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>5</v>
@@ -4102,7 +4681,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>5</v>
@@ -4110,7 +4689,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>5</v>
@@ -4118,7 +4697,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>5</v>
@@ -4126,7 +4705,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>5</v>
@@ -4134,7 +4713,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>5</v>
@@ -4142,7 +4721,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>5</v>
@@ -4150,7 +4729,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>5</v>
@@ -4158,7 +4737,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>5</v>
@@ -4166,7 +4745,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>5</v>
@@ -4174,7 +4753,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>5</v>
@@ -4182,7 +4761,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>5</v>
@@ -4190,7 +4769,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>5</v>
@@ -4198,7 +4777,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>5</v>
@@ -4206,7 +4785,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>5</v>
@@ -4214,7 +4793,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>5</v>
@@ -4222,7 +4801,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>5</v>
@@ -4230,7 +4809,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>5</v>
@@ -4238,7 +4817,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>5</v>
@@ -4246,7 +4825,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>5</v>
@@ -4254,7 +4833,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>5</v>
@@ -4262,7 +4841,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>5</v>
@@ -4270,7 +4849,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>5</v>
@@ -4278,7 +4857,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>5</v>
@@ -4286,7 +4865,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>5</v>
@@ -4294,7 +4873,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>5</v>
@@ -4302,7 +4881,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>5</v>
@@ -4310,7 +4889,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>5</v>
@@ -4318,7 +4897,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>5</v>
@@ -4326,7 +4905,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>5</v>
@@ -4334,7 +4913,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>5</v>
@@ -4342,7 +4921,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>5</v>
@@ -4350,7 +4929,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>5</v>
@@ -4358,7 +4937,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>5</v>
@@ -4366,7 +4945,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>5</v>
@@ -4374,7 +4953,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>5</v>
@@ -4382,7 +4961,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>5</v>
@@ -4390,7 +4969,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>5</v>
@@ -4398,7 +4977,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>5</v>
@@ -4406,7 +4985,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>5</v>
@@ -4414,7 +4993,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>5</v>
@@ -4422,7 +5001,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>5</v>
@@ -4430,7 +5009,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>5</v>
@@ -4438,7 +5017,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>5</v>
@@ -4446,7 +5025,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>5</v>
@@ -4454,7 +5033,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>5</v>
@@ -4462,7 +5041,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>5</v>
@@ -4470,7 +5049,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>5</v>
@@ -4478,7 +5057,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>5</v>
@@ -4486,7 +5065,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>5</v>
@@ -4494,7 +5073,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>5</v>
@@ -4502,7 +5081,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>5</v>
@@ -4510,7 +5089,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>5</v>
@@ -4518,7 +5097,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>5</v>
@@ -4526,7 +5105,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>5</v>
@@ -4534,7 +5113,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>5</v>
@@ -4542,7 +5121,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>5</v>
@@ -4550,7 +5129,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>5</v>
@@ -4558,7 +5137,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>5</v>
@@ -4566,7 +5145,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>5</v>
@@ -4574,7 +5153,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>5</v>
@@ -4582,7 +5161,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>5</v>
@@ -4590,7 +5169,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>5</v>
@@ -4598,7 +5177,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>5</v>
@@ -4606,7 +5185,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>5</v>
@@ -4614,7 +5193,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>5</v>
@@ -4622,7 +5201,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>5</v>
@@ -4630,7 +5209,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>5</v>
@@ -4638,7 +5217,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>5</v>
@@ -4646,7 +5225,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>5</v>
@@ -4654,7 +5233,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>5</v>
@@ -4662,7 +5241,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>5</v>
@@ -4670,7 +5249,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>5</v>
@@ -4678,7 +5257,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>5</v>
@@ -4686,7 +5265,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>5</v>
@@ -4694,7 +5273,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>5</v>
@@ -4702,7 +5281,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>5</v>
@@ -4710,7 +5289,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>5</v>
@@ -4718,7 +5297,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>5</v>
@@ -4726,7 +5305,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>5</v>
@@ -4734,7 +5313,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>5</v>
@@ -4742,7 +5321,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>5</v>
@@ -4750,7 +5329,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>5</v>
@@ -4758,7 +5337,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>5</v>
@@ -4766,7 +5345,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>5</v>
@@ -4774,7 +5353,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>5</v>
@@ -4782,7 +5361,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>5</v>
@@ -4790,7 +5369,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B259" s="4" t="s">
         <v>5</v>
@@ -4798,7 +5377,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>5</v>
@@ -4806,7 +5385,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>5</v>
@@ -4814,7 +5393,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>5</v>
@@ -4822,7 +5401,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B263" s="4" t="s">
         <v>5</v>
@@ -4830,7 +5409,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>5</v>
@@ -4838,7 +5417,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B265" s="4" t="s">
         <v>5</v>
@@ -4846,7 +5425,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B266" s="4" t="s">
         <v>5</v>
@@ -4854,7 +5433,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>5</v>
@@ -4862,7 +5441,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>5</v>
@@ -4870,7 +5449,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>5</v>
@@ -4878,7 +5457,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>5</v>
@@ -4886,7 +5465,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B271" s="4" t="s">
         <v>5</v>
@@ -4894,7 +5473,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>5</v>
@@ -4902,7 +5481,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>5</v>
@@ -4910,7 +5489,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>5</v>
@@ -4918,7 +5497,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B275" s="4" t="s">
         <v>5</v>
@@ -4926,7 +5505,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>5</v>
@@ -4934,7 +5513,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>5</v>
@@ -4942,7 +5521,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>5</v>
@@ -4950,7 +5529,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>5</v>
@@ -4958,7 +5537,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B280" s="4" t="s">
         <v>5</v>
@@ -4966,7 +5545,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B281" s="4" t="s">
         <v>5</v>
@@ -4974,7 +5553,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B282" s="4" t="s">
         <v>5</v>
@@ -4982,7 +5561,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B283" s="4" t="s">
         <v>5</v>
@@ -4990,7 +5569,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B284" s="4" t="s">
         <v>5</v>
@@ -4998,7 +5577,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B285" s="4" t="s">
         <v>5</v>
@@ -5006,7 +5585,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B286" s="4" t="s">
         <v>5</v>
@@ -5014,7 +5593,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B287" s="4" t="s">
         <v>5</v>
@@ -5022,7 +5601,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B288" s="4" t="s">
         <v>5</v>
@@ -5030,7 +5609,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B289" s="4" t="s">
         <v>5</v>
@@ -5038,7 +5617,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B290" s="4" t="s">
         <v>5</v>
@@ -5046,7 +5625,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B291" s="4" t="s">
         <v>5</v>
@@ -5054,7 +5633,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B292" s="4" t="s">
         <v>5</v>
@@ -5062,7 +5641,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B293" s="4" t="s">
         <v>5</v>
@@ -5070,7 +5649,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B294" s="4" t="s">
         <v>5</v>
@@ -5078,7 +5657,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B295" s="4" t="s">
         <v>5</v>
@@ -5086,7 +5665,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B296" s="4" t="s">
         <v>5</v>
@@ -5094,7 +5673,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B297" s="4" t="s">
         <v>5</v>
@@ -5102,7 +5681,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B298" s="4" t="s">
         <v>5</v>
@@ -5110,7 +5689,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B299" s="4" t="s">
         <v>5</v>
@@ -5118,7 +5697,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B300" s="4" t="s">
         <v>5</v>
@@ -5126,7 +5705,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B301" s="4" t="s">
         <v>5</v>
@@ -5134,7 +5713,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B302" s="4" t="s">
         <v>5</v>
@@ -5142,7 +5721,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B303" s="4" t="s">
         <v>5</v>
@@ -5150,7 +5729,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B304" s="4" t="s">
         <v>5</v>
@@ -5158,7 +5737,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B305" s="4" t="s">
         <v>5</v>
@@ -5166,7 +5745,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B306" s="4" t="s">
         <v>5</v>
@@ -5174,7 +5753,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B307" s="4" t="s">
         <v>5</v>
@@ -5182,7 +5761,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B308" s="4" t="s">
         <v>5</v>
@@ -5190,7 +5769,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B309" s="4" t="s">
         <v>5</v>
@@ -5198,7 +5777,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B310" s="4" t="s">
         <v>5</v>
@@ -5206,7 +5785,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B311" s="4" t="s">
         <v>5</v>
@@ -5214,7 +5793,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B312" s="4" t="s">
         <v>5</v>
@@ -5222,7 +5801,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B313" s="4" t="s">
         <v>5</v>
@@ -5230,7 +5809,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B314" s="4" t="s">
         <v>5</v>
@@ -5238,7 +5817,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B315" s="4" t="s">
         <v>5</v>
@@ -5246,7 +5825,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B316" s="4" t="s">
         <v>5</v>
@@ -5254,7 +5833,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B317" s="4" t="s">
         <v>5</v>
@@ -5262,7 +5841,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B318" s="4" t="s">
         <v>5</v>
@@ -5270,7 +5849,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B319" s="4" t="s">
         <v>5</v>
@@ -5278,7 +5857,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B320" s="4" t="s">
         <v>5</v>
@@ -5286,7 +5865,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B321" s="4" t="s">
         <v>5</v>
@@ -5294,7 +5873,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B322" s="4" t="s">
         <v>5</v>
@@ -5302,7 +5881,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B323" s="4" t="s">
         <v>5</v>
@@ -5310,7 +5889,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B324" s="4" t="s">
         <v>5</v>
@@ -5318,7 +5897,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B325" s="4" t="s">
         <v>5</v>
@@ -5326,7 +5905,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B326" s="4" t="s">
         <v>5</v>
@@ -5334,7 +5913,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B327" s="4" t="s">
         <v>5</v>
@@ -5342,7 +5921,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B328" s="4" t="s">
         <v>5</v>
@@ -5350,7 +5929,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B329" s="4" t="s">
         <v>5</v>
@@ -5358,7 +5937,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B330" s="4" t="s">
         <v>5</v>
@@ -5366,7 +5945,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B331" s="4" t="s">
         <v>5</v>
@@ -5374,7 +5953,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B332" s="4" t="s">
         <v>5</v>
@@ -5382,7 +5961,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B333" s="4" t="s">
         <v>5</v>
@@ -5390,7 +5969,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B334" s="4" t="s">
         <v>5</v>
@@ -5398,7 +5977,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B335" s="4" t="s">
         <v>5</v>
@@ -5406,7 +5985,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B336" s="4" t="s">
         <v>5</v>
@@ -5414,7 +5993,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B337" s="4" t="s">
         <v>5</v>
@@ -5422,7 +6001,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B338" s="4" t="s">
         <v>5</v>
@@ -5430,7 +6009,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B339" s="4" t="s">
         <v>5</v>
@@ -5438,7 +6017,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B340" s="4" t="s">
         <v>5</v>
@@ -5446,7 +6025,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B341" s="4" t="s">
         <v>5</v>
@@ -5454,7 +6033,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B342" s="4" t="s">
         <v>5</v>
@@ -5462,7 +6041,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B343" s="4" t="s">
         <v>5</v>
@@ -5470,7 +6049,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B344" s="4" t="s">
         <v>5</v>
@@ -5478,7 +6057,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B345" s="4" t="s">
         <v>5</v>
@@ -5486,7 +6065,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B346" s="4" t="s">
         <v>5</v>
@@ -5494,7 +6073,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B347" s="4" t="s">
         <v>5</v>
@@ -5502,7 +6081,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B348" s="4" t="s">
         <v>5</v>
@@ -5510,7 +6089,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B349" s="4" t="s">
         <v>5</v>
@@ -5518,7 +6097,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B350" s="4" t="s">
         <v>5</v>
@@ -5526,7 +6105,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B351" s="4" t="s">
         <v>5</v>
@@ -5534,7 +6113,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B352" s="4" t="s">
         <v>5</v>
@@ -5542,7 +6121,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B353" s="4" t="s">
         <v>5</v>
@@ -5550,7 +6129,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B354" s="4" t="s">
         <v>5</v>
@@ -5558,7 +6137,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B355" s="4" t="s">
         <v>5</v>
@@ -5566,7 +6145,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B356" s="4" t="s">
         <v>5</v>
@@ -5574,7 +6153,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B357" s="4" t="s">
         <v>5</v>
@@ -5582,7 +6161,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B358" s="4" t="s">
         <v>5</v>
@@ -5590,7 +6169,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B359" s="4" t="s">
         <v>5</v>
@@ -5598,7 +6177,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B360" s="4" t="s">
         <v>5</v>
@@ -5606,7 +6185,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B361" s="4" t="s">
         <v>5</v>
@@ -5614,7 +6193,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B362" s="4" t="s">
         <v>5</v>
@@ -5622,7 +6201,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B363" s="4" t="s">
         <v>5</v>
@@ -5630,7 +6209,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B364" s="4" t="s">
         <v>5</v>
@@ -5638,7 +6217,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B365" s="4" t="s">
         <v>5</v>
@@ -5646,7 +6225,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B366" s="4" t="s">
         <v>5</v>
@@ -5654,7 +6233,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B367" s="4" t="s">
         <v>5</v>
@@ -5662,7 +6241,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B368" s="4" t="s">
         <v>5</v>
@@ -5670,7 +6249,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B369" s="4" t="s">
         <v>5</v>
@@ -5678,7 +6257,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B370" s="4" t="s">
         <v>5</v>
@@ -5686,7 +6265,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B371" s="4" t="s">
         <v>5</v>
@@ -5694,7 +6273,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B372" s="4" t="s">
         <v>5</v>
@@ -5702,7 +6281,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B373" s="4" t="s">
         <v>5</v>
@@ -5710,7 +6289,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B374" s="4" t="s">
         <v>5</v>
@@ -5718,7 +6297,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B375" s="4" t="s">
         <v>5</v>
@@ -5726,7 +6305,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B376" s="4" t="s">
         <v>5</v>
@@ -5734,7 +6313,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B377" s="4" t="s">
         <v>5</v>
@@ -5742,7 +6321,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B378" s="4" t="s">
         <v>5</v>
@@ -5750,7 +6329,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B379" s="4" t="s">
         <v>5</v>
@@ -5758,7 +6337,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B380" s="4" t="s">
         <v>5</v>
@@ -5766,7 +6345,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B381" s="4" t="s">
         <v>5</v>
@@ -5774,7 +6353,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B382" s="4" t="s">
         <v>5</v>
@@ -5782,7 +6361,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B383" s="4" t="s">
         <v>5</v>
@@ -5790,7 +6369,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B384" s="4" t="s">
         <v>5</v>
@@ -5798,7 +6377,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B385" s="4" t="s">
         <v>5</v>
@@ -5806,7 +6385,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B386" s="4" t="s">
         <v>5</v>
@@ -5814,7 +6393,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B387" s="4" t="s">
         <v>5</v>
@@ -5822,7 +6401,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B388" s="4" t="s">
         <v>5</v>
@@ -5830,7 +6409,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B389" s="4" t="s">
         <v>5</v>
@@ -5838,7 +6417,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B390" s="4" t="s">
         <v>5</v>
@@ -5846,7 +6425,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B391" s="4" t="s">
         <v>5</v>
@@ -5854,7 +6433,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B392" s="4" t="s">
         <v>5</v>
@@ -5862,7 +6441,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B393" s="4" t="s">
         <v>5</v>
@@ -5870,7 +6449,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B394" s="4" t="s">
         <v>5</v>
@@ -5878,7 +6457,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B395" s="4" t="s">
         <v>5</v>
@@ -5886,7 +6465,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B396" s="4" t="s">
         <v>5</v>
@@ -5894,7 +6473,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B397" s="4" t="s">
         <v>5</v>
@@ -5902,7 +6481,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B398" s="4" t="s">
         <v>5</v>
@@ -5910,7 +6489,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B399" s="4" t="s">
         <v>5</v>
@@ -5918,7 +6497,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B400" s="4" t="s">
         <v>5</v>
@@ -5926,7 +6505,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B401" s="4" t="s">
         <v>5</v>
@@ -5934,7 +6513,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B402" s="4" t="s">
         <v>5</v>
@@ -5942,7 +6521,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B403" s="4" t="s">
         <v>5</v>
@@ -5950,7 +6529,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B404" s="4" t="s">
         <v>5</v>
@@ -5958,7 +6537,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B405" s="4" t="s">
         <v>5</v>
@@ -5966,7 +6545,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B406" s="4" t="s">
         <v>5</v>
@@ -5974,7 +6553,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B407" s="4" t="s">
         <v>5</v>
@@ -5982,7 +6561,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B408" s="4" t="s">
         <v>5</v>
@@ -5990,7 +6569,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B409" s="4" t="s">
         <v>5</v>
@@ -5998,7 +6577,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B410" s="4" t="s">
         <v>5</v>
@@ -6006,7 +6585,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B411" s="4" t="s">
         <v>5</v>
@@ -6014,7 +6593,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B412" s="4" t="s">
         <v>5</v>
@@ -6022,7 +6601,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B413" s="4" t="s">
         <v>5</v>
@@ -6030,7 +6609,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B414" s="4" t="s">
         <v>5</v>
@@ -6038,7 +6617,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B415" s="4" t="s">
         <v>5</v>
@@ -6046,7 +6625,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B416" s="4" t="s">
         <v>5</v>
@@ -6054,7 +6633,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B417" s="4" t="s">
         <v>5</v>
@@ -6062,7 +6641,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B418" s="4" t="s">
         <v>5</v>
@@ -6070,7 +6649,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B419" s="4" t="s">
         <v>5</v>
@@ -6078,7 +6657,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B420" s="4" t="s">
         <v>5</v>
@@ -6086,7 +6665,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B421" s="4" t="s">
         <v>5</v>
@@ -6094,7 +6673,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B422" s="4" t="s">
         <v>5</v>
@@ -6102,7 +6681,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B423" s="4" t="s">
         <v>5</v>
@@ -6110,7 +6689,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B424" s="4" t="s">
         <v>5</v>
@@ -6118,7 +6697,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B425" s="4" t="s">
         <v>5</v>
@@ -6126,7 +6705,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B426" s="4" t="s">
         <v>5</v>
@@ -6134,7 +6713,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B427" s="4" t="s">
         <v>5</v>
@@ -6142,7 +6721,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B428" s="4" t="s">
         <v>5</v>
@@ -6150,7 +6729,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B429" s="4" t="s">
         <v>5</v>
@@ -6158,7 +6737,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B430" s="4" t="s">
         <v>5</v>
@@ -6166,7 +6745,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B431" s="4" t="s">
         <v>5</v>
@@ -6174,7 +6753,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B432" s="4" t="s">
         <v>5</v>
@@ -6182,7 +6761,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B433" s="4" t="s">
         <v>5</v>
@@ -6190,7 +6769,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B434" s="4" t="s">
         <v>5</v>
@@ -6198,7 +6777,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B435" s="4" t="s">
         <v>5</v>
@@ -6206,7 +6785,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B436" s="4" t="s">
         <v>5</v>
@@ -6214,7 +6793,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B437" s="4" t="s">
         <v>5</v>
@@ -6222,7 +6801,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B438" s="4" t="s">
         <v>5</v>
@@ -6230,7 +6809,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B439" s="4" t="s">
         <v>5</v>
@@ -6238,7 +6817,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B440" s="4" t="s">
         <v>5</v>
@@ -6246,7 +6825,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B441" s="4" t="s">
         <v>5</v>
@@ -6254,7 +6833,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B442" s="4" t="s">
         <v>5</v>
@@ -6262,7 +6841,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B443" s="4" t="s">
         <v>5</v>
@@ -6270,7 +6849,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B444" s="4" t="s">
         <v>5</v>
@@ -6278,7 +6857,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B445" s="4" t="s">
         <v>5</v>
@@ -6286,7 +6865,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B446" s="4" t="s">
         <v>5</v>
@@ -6294,7 +6873,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B447" s="4" t="s">
         <v>5</v>
@@ -6302,7 +6881,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B448" s="4" t="s">
         <v>5</v>
@@ -6310,7 +6889,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B449" s="4" t="s">
         <v>5</v>
@@ -6318,15 +6897,15 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B451" s="4" t="s">
         <v>5</v>
@@ -6334,7 +6913,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B452" s="4" t="s">
         <v>5</v>
@@ -6342,7 +6921,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B453" s="4" t="s">
         <v>5</v>
@@ -6350,7 +6929,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B454" s="4" t="s">
         <v>5</v>
@@ -6358,7 +6937,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B455" s="4" t="s">
         <v>5</v>
@@ -6366,7 +6945,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B456" s="4" t="s">
         <v>5</v>
@@ -6374,7 +6953,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B457" s="4" t="s">
         <v>5</v>
@@ -6382,7 +6961,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B458" s="4" t="s">
         <v>5</v>
@@ -6390,7 +6969,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B459" s="4" t="s">
         <v>5</v>
@@ -6398,7 +6977,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B460" s="4" t="s">
         <v>5</v>
@@ -6406,7 +6985,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B461" s="4" t="s">
         <v>5</v>
@@ -6414,7 +6993,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B462" s="4" t="s">
         <v>5</v>
@@ -6422,7 +7001,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B463" s="4" t="s">
         <v>5</v>
@@ -6430,7 +7009,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B464" s="4" t="s">
         <v>5</v>
@@ -6438,7 +7017,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B465" s="4" t="s">
         <v>5</v>
@@ -6446,7 +7025,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B466" s="4" t="s">
         <v>5</v>
@@ -6454,7 +7033,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B467" s="4" t="s">
         <v>5</v>
@@ -6462,7 +7041,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B468" s="4" t="s">
         <v>5</v>
@@ -6470,7 +7049,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B469" s="4" t="s">
         <v>5</v>
@@ -6478,7 +7057,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B470" s="4" t="s">
         <v>5</v>
@@ -6486,7 +7065,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B471" s="4" t="s">
         <v>5</v>
@@ -6494,7 +7073,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B472" s="4" t="s">
         <v>5</v>
@@ -6502,7 +7081,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B473" s="4" t="s">
         <v>5</v>
@@ -6510,7 +7089,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B474" s="4" t="s">
         <v>5</v>
@@ -6518,7 +7097,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B475" s="4" t="s">
         <v>5</v>
@@ -6526,7 +7105,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B476" s="4" t="s">
         <v>5</v>
@@ -6534,7 +7113,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B477" s="4" t="s">
         <v>5</v>
@@ -6542,7 +7121,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B478" s="4" t="s">
         <v>5</v>
@@ -6550,7 +7129,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B479" s="4" t="s">
         <v>5</v>
@@ -6558,7 +7137,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B480" s="4" t="s">
         <v>5</v>
@@ -6566,7 +7145,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B481" s="4" t="s">
         <v>5</v>
@@ -6574,7 +7153,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B482" s="4" t="s">
         <v>5</v>
@@ -6582,7 +7161,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B483" s="4" t="s">
         <v>5</v>
@@ -6590,7 +7169,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B484" s="4" t="s">
         <v>5</v>
@@ -6598,7 +7177,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B485" s="4" t="s">
         <v>5</v>
@@ -6606,7 +7185,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B486" s="4" t="s">
         <v>5</v>
@@ -6614,7 +7193,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B487" s="4" t="s">
         <v>5</v>
@@ -6622,7 +7201,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B488" s="4" t="s">
         <v>5</v>
@@ -6630,7 +7209,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B489" s="4" t="s">
         <v>5</v>
@@ -6638,7 +7217,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B490" s="4" t="s">
         <v>5</v>
@@ -6646,7 +7225,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B491" s="4" t="s">
         <v>5</v>
@@ -6654,15 +7233,15 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B493" s="4" t="s">
         <v>5</v>
@@ -6670,7 +7249,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B494" s="4" t="s">
         <v>5</v>
@@ -6678,7 +7257,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B495" s="4" t="s">
         <v>5</v>
@@ -6686,7 +7265,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B496" s="4" t="s">
         <v>5</v>
@@ -6694,7 +7273,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B497" s="4" t="s">
         <v>5</v>
@@ -6702,7 +7281,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B498" s="4" t="s">
         <v>5</v>
@@ -6710,7 +7289,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B499" s="4" t="s">
         <v>5</v>
@@ -6718,7 +7297,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B500" s="4" t="s">
         <v>5</v>
@@ -6726,7 +7305,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B501" s="4" t="s">
         <v>5</v>
@@ -6734,7 +7313,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B502" s="4" t="s">
         <v>5</v>
@@ -6742,7 +7321,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B503" s="4" t="s">
         <v>5</v>
@@ -6750,7 +7329,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B504" s="4" t="s">
         <v>5</v>
@@ -6758,7 +7337,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B505" s="4" t="s">
         <v>5</v>
@@ -6766,7 +7345,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B506" s="4" t="s">
         <v>5</v>
@@ -6774,7 +7353,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B507" s="4" t="s">
         <v>5</v>
@@ -6782,7 +7361,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B508" s="4" t="s">
         <v>5</v>
@@ -6790,7 +7369,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B509" s="4" t="s">
         <v>5</v>
@@ -6798,7 +7377,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B510" s="4" t="s">
         <v>5</v>
@@ -6806,7 +7385,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B511" s="4" t="s">
         <v>5</v>
@@ -6814,7 +7393,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B512" s="4" t="s">
         <v>5</v>
@@ -6822,7 +7401,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B513" s="4" t="s">
         <v>5</v>
@@ -6830,7 +7409,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B514" s="4" t="s">
         <v>5</v>
@@ -6838,7 +7417,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B515" s="4" t="s">
         <v>5</v>
@@ -6846,7 +7425,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B516" s="4" t="s">
         <v>5</v>
@@ -6854,7 +7433,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B517" s="4" t="s">
         <v>5</v>
@@ -6862,7 +7441,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B518" s="4" t="s">
         <v>5</v>
@@ -6870,7 +7449,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B519" s="4" t="s">
         <v>5</v>
@@ -6878,7 +7457,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B520" s="4" t="s">
         <v>5</v>
@@ -6886,7 +7465,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B521" s="4" t="s">
         <v>3</v>
@@ -6894,7 +7473,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B522" s="4" t="s">
         <v>3</v>
@@ -6902,7 +7481,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B523" s="4" t="s">
         <v>3</v>
@@ -6910,7 +7489,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B524" s="4" t="s">
         <v>5</v>
@@ -6918,7 +7497,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B525" s="4" t="s">
         <v>5</v>
@@ -6926,7 +7505,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B526" s="4" t="s">
         <v>5</v>
@@ -6934,7 +7513,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B527" s="4" t="s">
         <v>5</v>
@@ -6942,7 +7521,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B528" s="4" t="s">
         <v>5</v>
@@ -6950,7 +7529,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B529" s="4" t="s">
         <v>3</v>
@@ -6958,7 +7537,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B530" s="4" t="s">
         <v>3</v>
@@ -6966,7 +7545,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B531" s="4" t="s">
         <v>5</v>
@@ -6974,7 +7553,7 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B532" s="4" t="s">
         <v>5</v>
@@ -6982,7 +7561,7 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B533" s="4" t="s">
         <v>5</v>
@@ -6990,7 +7569,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B534" s="4" t="s">
         <v>5</v>
@@ -6998,7 +7577,7 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B535" s="4" t="s">
         <v>5</v>
@@ -7006,7 +7585,7 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B536" s="4" t="s">
         <v>3</v>
@@ -7014,7 +7593,7 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B537" s="4" t="s">
         <v>5</v>
@@ -7022,7 +7601,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B538" s="4" t="s">
         <v>3</v>
@@ -7030,7 +7609,7 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B539" s="4" t="s">
         <v>3</v>
@@ -7038,7 +7617,7 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B540" s="4" t="s">
         <v>5</v>
@@ -7046,7 +7625,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B541" s="4" t="s">
         <v>5</v>
@@ -7054,15 +7633,15 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B543" s="4" t="s">
         <v>5</v>
@@ -7070,7 +7649,7 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B544" s="4" t="s">
         <v>5</v>
@@ -7078,7 +7657,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B545" s="4" t="s">
         <v>5</v>
@@ -7086,7 +7665,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B546" s="4" t="s">
         <v>5</v>
@@ -7094,7 +7673,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B547" s="4" t="s">
         <v>5</v>
@@ -7102,7 +7681,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B548" s="4" t="s">
         <v>5</v>
@@ -7110,7 +7689,7 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B549" s="4" t="s">
         <v>5</v>
@@ -7118,7 +7697,7 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B550" s="4" t="s">
         <v>5</v>
@@ -7126,7 +7705,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B551" s="4" t="s">
         <v>5</v>
@@ -7134,7 +7713,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B552" s="4" t="s">
         <v>5</v>
@@ -7142,7 +7721,7 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B553" s="4" t="s">
         <v>5</v>
@@ -7150,7 +7729,7 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B554" s="4" t="s">
         <v>5</v>
@@ -7158,7 +7737,7 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B555" s="4" t="s">
         <v>5</v>
@@ -7166,7 +7745,7 @@
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B556" s="4" t="s">
         <v>5</v>
@@ -7174,7 +7753,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B557" s="4" t="s">
         <v>5</v>
@@ -7182,7 +7761,7 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B558" s="4" t="s">
         <v>5</v>
@@ -7190,7 +7769,7 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B559" s="4" t="s">
         <v>3</v>
@@ -7198,7 +7777,7 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B560" s="4" t="s">
         <v>3</v>
@@ -7206,15 +7785,15 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B562" s="4" t="s">
         <v>5</v>
@@ -7222,7 +7801,7 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B563" s="4" t="s">
         <v>5</v>
@@ -7230,7 +7809,7 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B564" s="4" t="s">
         <v>5</v>
@@ -7238,7 +7817,7 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B565" s="4" t="s">
         <v>5</v>
@@ -7246,7 +7825,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B566" s="4" t="s">
         <v>5</v>
@@ -7254,7 +7833,7 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B567" s="4" t="s">
         <v>3</v>
@@ -7262,7 +7841,7 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B568" s="4" t="s">
         <v>5</v>
@@ -7270,7 +7849,7 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B569" s="4" t="s">
         <v>5</v>
@@ -7278,7 +7857,7 @@
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B570" s="4" t="s">
         <v>5</v>
@@ -7286,7 +7865,7 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B571" s="4" t="s">
         <v>5</v>
@@ -7294,7 +7873,7 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B572" s="4" t="s">
         <v>5</v>
@@ -7302,7 +7881,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B573" s="4" t="s">
         <v>5</v>
@@ -7310,7 +7889,7 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B574" s="4" t="s">
         <v>5</v>
@@ -7318,7 +7897,7 @@
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B575" s="4" t="s">
         <v>5</v>
@@ -7326,7 +7905,7 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B576" s="4" t="s">
         <v>5</v>
@@ -7334,7 +7913,7 @@
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B577" s="4" t="s">
         <v>5</v>
@@ -7342,7 +7921,7 @@
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B578" s="4" t="s">
         <v>5</v>
@@ -7350,7 +7929,7 @@
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B579" s="4" t="s">
         <v>5</v>
@@ -7358,7 +7937,7 @@
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B580" s="4" t="s">
         <v>5</v>
@@ -7366,7 +7945,7 @@
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B581" s="4" t="s">
         <v>5</v>
@@ -7374,7 +7953,7 @@
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B582" s="4" t="s">
         <v>5</v>
@@ -7382,7 +7961,7 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B583" s="4" t="s">
         <v>5</v>
@@ -7390,7 +7969,7 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B584" s="4" t="s">
         <v>5</v>
@@ -7398,7 +7977,7 @@
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B585" s="4" t="s">
         <v>72</v>
@@ -7406,7 +7985,7 @@
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B586" s="4" t="s">
         <v>5</v>
@@ -7414,7 +7993,7 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B587" s="4" t="s">
         <v>5</v>
@@ -7422,7 +8001,7 @@
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B588" s="4" t="s">
         <v>5</v>
@@ -7430,7 +8009,7 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B589" s="4" t="s">
         <v>5</v>
@@ -7438,7 +8017,7 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B590" s="4" t="s">
         <v>5</v>
@@ -7446,7 +8025,7 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B591" s="4" t="s">
         <v>5</v>
@@ -7454,7 +8033,7 @@
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B592" s="4" t="s">
         <v>5</v>
@@ -7462,7 +8041,7 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B593" s="4" t="s">
         <v>5</v>
@@ -7470,7 +8049,7 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B594" s="4" t="s">
         <v>5</v>
@@ -7478,7 +8057,7 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B595" s="4" t="s">
         <v>5</v>
@@ -7486,7 +8065,7 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B596" s="4" t="s">
         <v>3</v>
@@ -7494,7 +8073,7 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B597" s="4" t="s">
         <v>5</v>
@@ -7502,7 +8081,7 @@
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B598" s="4" t="s">
         <v>3</v>
@@ -7510,7 +8089,7 @@
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B599" s="4" t="s">
         <v>5</v>
@@ -7518,7 +8097,7 @@
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B600" s="4" t="s">
         <v>5</v>
@@ -7526,7 +8105,7 @@
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B601" s="4" t="s">
         <v>5</v>
@@ -7534,7 +8113,7 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B602" s="4" t="s">
         <v>5</v>
@@ -7542,7 +8121,7 @@
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B603" s="4" t="s">
         <v>5</v>
@@ -7550,7 +8129,7 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B604" s="4" t="s">
         <v>3</v>
@@ -7558,7 +8137,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B605" s="4" t="s">
         <v>5</v>
@@ -7566,7 +8145,7 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B606" s="4" t="s">
         <v>5</v>
@@ -7574,7 +8153,7 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B607" s="4" t="s">
         <v>5</v>
@@ -7582,7 +8161,7 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B608" s="4" t="s">
         <v>3</v>
@@ -7590,7 +8169,7 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B609" s="4" t="s">
         <v>5</v>
@@ -7598,7 +8177,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B610" s="4" t="s">
         <v>3</v>
@@ -7606,7 +8185,7 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B611" s="4" t="s">
         <v>5</v>
@@ -7614,7 +8193,7 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B612" s="4" t="s">
         <v>5</v>
@@ -7622,7 +8201,7 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B613" s="4" t="s">
         <v>5</v>
@@ -7630,7 +8209,7 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B614" s="4" t="s">
         <v>5</v>
@@ -7638,7 +8217,7 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B615" s="4" t="s">
         <v>5</v>
@@ -7646,7 +8225,7 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B616" s="4" t="s">
         <v>5</v>
@@ -7654,7 +8233,7 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B617" s="4" t="s">
         <v>5</v>
@@ -7662,7 +8241,7 @@
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B618" s="4" t="s">
         <v>5</v>
@@ -7670,7 +8249,7 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B619" s="4" t="s">
         <v>5</v>
@@ -7678,7 +8257,7 @@
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B620" s="4" t="s">
         <v>5</v>
@@ -7686,7 +8265,7 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B621" s="4" t="s">
         <v>5</v>
@@ -7694,7 +8273,7 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B622" s="4" t="s">
         <v>3</v>
@@ -7702,7 +8281,7 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B623" s="4" t="s">
         <v>5</v>
@@ -7710,7 +8289,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B624" s="4" t="s">
         <v>3</v>
@@ -7718,7 +8297,7 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B625" s="4" t="s">
         <v>5</v>
@@ -7726,7 +8305,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B626" s="4" t="s">
         <v>3</v>
@@ -7734,7 +8313,7 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B627" s="4" t="s">
         <v>5</v>
@@ -7742,7 +8321,7 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B628" s="4" t="s">
         <v>5</v>
@@ -7750,7 +8329,7 @@
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B629" s="4" t="s">
         <v>5</v>
@@ -7758,7 +8337,7 @@
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B630" s="4" t="s">
         <v>3</v>
@@ -7766,7 +8345,7 @@
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B631" s="4" t="s">
         <v>5</v>
@@ -7774,7 +8353,7 @@
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B632" s="4" t="s">
         <v>5</v>
@@ -7782,7 +8361,7 @@
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B633" s="4" t="s">
         <v>5</v>
@@ -7790,7 +8369,7 @@
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B634" s="4" t="s">
         <v>5</v>
@@ -7798,7 +8377,7 @@
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B635" s="4" t="s">
         <v>5</v>
@@ -7806,7 +8385,7 @@
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B636" s="4" t="s">
         <v>5</v>
@@ -7814,7 +8393,7 @@
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B637" s="4" t="s">
         <v>5</v>
@@ -7822,7 +8401,7 @@
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B638" s="4" t="s">
         <v>5</v>
@@ -7830,7 +8409,7 @@
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B639" s="4" t="s">
         <v>5</v>
@@ -7838,7 +8417,7 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B640" s="4" t="s">
         <v>3</v>
@@ -7846,7 +8425,7 @@
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B641" s="4" t="s">
         <v>5</v>
@@ -7854,7 +8433,7 @@
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B642" s="4" t="s">
         <v>5</v>
@@ -7862,7 +8441,7 @@
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B643" s="4" t="s">
         <v>5</v>
@@ -7870,7 +8449,7 @@
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B644" s="4" t="s">
         <v>5</v>
@@ -7878,7 +8457,7 @@
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B645" s="4" t="s">
         <v>5</v>
@@ -7886,7 +8465,7 @@
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B646" s="4" t="s">
         <v>5</v>
@@ -7894,7 +8473,7 @@
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B647" s="4" t="s">
         <v>5</v>
@@ -7902,7 +8481,7 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B648" s="4" t="s">
         <v>5</v>
@@ -7910,7 +8489,7 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B649" s="4" t="s">
         <v>5</v>
@@ -7918,7 +8497,7 @@
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B650" s="4" t="s">
         <v>5</v>
@@ -7926,7 +8505,7 @@
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B651" s="4" t="s">
         <v>5</v>
@@ -7934,7 +8513,7 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B652" s="4" t="s">
         <v>5</v>
@@ -7942,7 +8521,7 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B653" s="4" t="s">
         <v>5</v>
@@ -7950,7 +8529,7 @@
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B654" s="4" t="s">
         <v>5</v>
@@ -7958,7 +8537,7 @@
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B655" s="4" t="s">
         <v>5</v>
@@ -7966,7 +8545,7 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B656" s="4" t="s">
         <v>5</v>
@@ -7974,7 +8553,7 @@
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B657" s="4" t="s">
         <v>5</v>
@@ -7982,7 +8561,7 @@
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" s="3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B658" s="4" t="s">
         <v>5</v>
@@ -7990,7 +8569,7 @@
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B659" s="4" t="s">
         <v>5</v>
@@ -7998,7 +8577,7 @@
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B660" s="4" t="s">
         <v>5</v>
@@ -8006,7 +8585,7 @@
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B661" s="4" t="s">
         <v>5</v>
@@ -8014,7 +8593,7 @@
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B662" s="4" t="s">
         <v>5</v>
@@ -8022,7 +8601,7 @@
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B663" s="4" t="s">
         <v>5</v>
@@ -8030,7 +8609,7 @@
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B664" s="4" t="s">
         <v>5</v>
@@ -8038,7 +8617,7 @@
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" s="3" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B665" s="4" t="s">
         <v>5</v>
@@ -8046,7 +8625,7 @@
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B666" s="4" t="s">
         <v>5</v>
@@ -8054,7 +8633,7 @@
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" s="3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B667" s="4" t="s">
         <v>5</v>
@@ -8062,7 +8641,7 @@
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B668" s="4" t="s">
         <v>5</v>
@@ -8070,7 +8649,7 @@
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B669" s="4" t="s">
         <v>5</v>
@@ -8078,7 +8657,7 @@
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B670" s="4" t="s">
         <v>5</v>
@@ -8086,7 +8665,7 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B671" s="4" t="s">
         <v>5</v>
@@ -8094,7 +8673,7 @@
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" s="3" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B672" s="4" t="s">
         <v>5</v>
@@ -8102,7 +8681,7 @@
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B673" s="4" t="s">
         <v>5</v>
@@ -8110,7 +8689,7 @@
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B674" s="4" t="s">
         <v>5</v>
@@ -8118,7 +8697,7 @@
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B675" s="4" t="s">
         <v>5</v>
@@ -8126,7 +8705,7 @@
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B676" s="4" t="s">
         <v>5</v>
@@ -8134,7 +8713,7 @@
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B677" s="4" t="s">
         <v>5</v>
@@ -8142,7 +8721,7 @@
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" s="3" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B678" s="4" t="s">
         <v>5</v>
@@ -8150,7 +8729,7 @@
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B679" s="4" t="s">
         <v>5</v>
@@ -8158,7 +8737,7 @@
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B680" s="4" t="s">
         <v>5</v>
@@ -8166,7 +8745,7 @@
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" s="3" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B681" s="4" t="s">
         <v>5</v>
@@ -8174,7 +8753,7 @@
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" s="3" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B682" s="4" t="s">
         <v>5</v>
@@ -8182,7 +8761,7 @@
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B683" s="4" t="s">
         <v>5</v>
@@ -8190,7 +8769,7 @@
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B684" s="4" t="s">
         <v>5</v>
@@ -8198,7 +8777,7 @@
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" s="3" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B685" s="4" t="s">
         <v>5</v>
@@ -8206,7 +8785,7 @@
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" s="3" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B686" s="4" t="s">
         <v>5</v>
@@ -8214,7 +8793,7 @@
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B687" s="4" t="s">
         <v>5</v>
@@ -8222,7 +8801,7 @@
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B688" s="4" t="s">
         <v>5</v>
@@ -8230,7 +8809,7 @@
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B689" s="4" t="s">
         <v>5</v>
@@ -8238,7 +8817,7 @@
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B690" s="4" t="s">
         <v>5</v>
@@ -8246,7 +8825,7 @@
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B691" s="4" t="s">
         <v>5</v>
@@ -8254,7 +8833,7 @@
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B692" s="4" t="s">
         <v>5</v>
@@ -8262,7 +8841,7 @@
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B693" s="4" t="s">
         <v>5</v>
@@ -8270,7 +8849,7 @@
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B694" s="4" t="s">
         <v>5</v>
@@ -8278,7 +8857,7 @@
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" s="3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B695" s="4" t="s">
         <v>5</v>
@@ -8286,7 +8865,7 @@
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B696" s="4" t="s">
         <v>5</v>
@@ -8294,7 +8873,7 @@
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B697" s="4" t="s">
         <v>5</v>
@@ -8302,7 +8881,7 @@
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B698" s="4" t="s">
         <v>5</v>
@@ -8310,7 +8889,7 @@
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" s="3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B699" s="4" t="s">
         <v>5</v>
@@ -8318,7 +8897,7 @@
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B700" s="4" t="s">
         <v>5</v>
@@ -8326,7 +8905,7 @@
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" s="3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B701" s="4" t="s">
         <v>5</v>
@@ -8334,7 +8913,7 @@
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" s="3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B702" s="4" t="s">
         <v>5</v>
@@ -8342,7 +8921,7 @@
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B703" s="4" t="s">
         <v>5</v>
@@ -8350,7 +8929,7 @@
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B704" s="4" t="s">
         <v>5</v>
@@ -8358,7 +8937,7 @@
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B705" s="4" t="s">
         <v>5</v>
@@ -8366,7 +8945,7 @@
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B706" s="4" t="s">
         <v>5</v>
@@ -8374,7 +8953,7 @@
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" s="3" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B707" s="4" t="s">
         <v>5</v>
@@ -8382,7 +8961,7 @@
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B708" s="4" t="s">
         <v>5</v>
@@ -8390,7 +8969,7 @@
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" s="3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B709" s="4" t="s">
         <v>5</v>
@@ -8398,7 +8977,7 @@
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" s="3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B710" s="4" t="s">
         <v>5</v>
@@ -8406,7 +8985,7 @@
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B711" s="4" t="s">
         <v>5</v>
@@ -8414,7 +8993,7 @@
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B712" s="4" t="s">
         <v>5</v>
@@ -8422,7 +9001,7 @@
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" s="3" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B713" s="4" t="s">
         <v>72</v>
@@ -8430,7 +9009,7 @@
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B714" s="4" t="s">
         <v>5</v>
@@ -8438,7 +9017,7 @@
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B715" s="4" t="s">
         <v>5</v>
@@ -8446,7 +9025,7 @@
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" s="3" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B716" s="4" t="s">
         <v>5</v>
@@ -8454,7 +9033,7 @@
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" s="3" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B717" s="4" t="s">
         <v>5</v>
@@ -8462,7 +9041,7 @@
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" s="3" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B718" s="4" t="s">
         <v>5</v>
@@ -8470,7 +9049,7 @@
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" s="3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B719" s="4" t="s">
         <v>5</v>
@@ -8478,7 +9057,7 @@
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" s="3" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B720" s="4" t="s">
         <v>5</v>
@@ -8486,7 +9065,7 @@
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" s="3" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B721" s="4" t="s">
         <v>5</v>
@@ -8494,7 +9073,7 @@
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B722" s="4" t="s">
         <v>5</v>
@@ -8502,7 +9081,7 @@
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" s="3" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B723" s="4" t="s">
         <v>5</v>
@@ -8510,7 +9089,7 @@
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" s="3" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B724" s="4" t="s">
         <v>5</v>
@@ -8518,7 +9097,7 @@
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" s="3" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B725" s="4" t="s">
         <v>5</v>
@@ -8526,7 +9105,7 @@
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" s="3" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B726" s="4" t="s">
         <v>5</v>
@@ -8534,7 +9113,7 @@
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" s="3" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B727" s="4" t="s">
         <v>5</v>
@@ -8542,7 +9121,7 @@
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" s="3" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B728" s="4" t="s">
         <v>5</v>
@@ -8550,7 +9129,7 @@
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" s="3" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B729" s="4" t="s">
         <v>5</v>
@@ -8558,7 +9137,7 @@
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" s="3" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B730" s="4" t="s">
         <v>5</v>
@@ -8566,7 +9145,7 @@
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" s="3" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B731" s="4" t="s">
         <v>5</v>
@@ -8574,7 +9153,7 @@
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" s="3" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B732" s="4" t="s">
         <v>5</v>
@@ -8582,7 +9161,7 @@
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" s="3" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B733" s="4" t="s">
         <v>5</v>
@@ -8590,7 +9169,7 @@
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" s="3" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B734" s="4" t="s">
         <v>5</v>
@@ -8598,7 +9177,7 @@
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" s="3" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B735" s="4" t="s">
         <v>5</v>
@@ -8606,7 +9185,7 @@
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" s="3" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B736" s="4" t="s">
         <v>5</v>
@@ -8614,7 +9193,7 @@
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" s="3" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B737" s="4" t="s">
         <v>5</v>
@@ -8622,7 +9201,7 @@
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" s="3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B738" s="4" t="s">
         <v>5</v>
@@ -8630,7 +9209,7 @@
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" s="4" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B739" s="4" t="s">
         <v>5</v>
@@ -8638,7 +9217,7 @@
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" s="4" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B740" s="4" t="s">
         <v>5</v>
@@ -8646,7 +9225,7 @@
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" s="4" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B741" s="4" t="s">
         <v>3</v>
@@ -8654,7 +9233,7 @@
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" s="4" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B742" s="4" t="s">
         <v>72</v>
@@ -8662,7 +9241,7 @@
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" s="4" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B743" s="4" t="s">
         <v>5</v>
@@ -8670,7 +9249,7 @@
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" s="4" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B744" s="4" t="s">
         <v>5</v>
@@ -8678,7 +9257,7 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" s="4" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B745" s="4" t="s">
         <v>5</v>
@@ -8686,7 +9265,7 @@
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" s="4" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B746" s="4" t="s">
         <v>5</v>
@@ -8694,7 +9273,7 @@
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" s="4" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B747" s="4" t="s">
         <v>5</v>
@@ -8702,7 +9281,7 @@
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" s="4" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B748" s="4" t="s">
         <v>5</v>
@@ -8710,7 +9289,7 @@
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" s="4" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B749" s="4" t="s">
         <v>5</v>
@@ -8718,7 +9297,7 @@
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" s="4" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B750" s="4" t="s">
         <v>5</v>
@@ -8726,7 +9305,7 @@
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" s="4" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B751" s="4" t="s">
         <v>5</v>
@@ -8734,7 +9313,7 @@
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752" s="4" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B752" s="4" t="s">
         <v>5</v>
@@ -8742,7 +9321,7 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" s="4" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B753" s="4" t="s">
         <v>5</v>
@@ -8750,7 +9329,7 @@
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" s="4" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B754" s="4" t="s">
         <v>5</v>
@@ -8758,7 +9337,7 @@
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" s="4" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B755" s="4" t="s">
         <v>5</v>
@@ -8766,7 +9345,7 @@
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" s="4" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B756" s="4" t="s">
         <v>5</v>
@@ -8774,7 +9353,7 @@
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757" s="4" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B757" s="4" t="s">
         <v>5</v>
@@ -8782,7 +9361,7 @@
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758" s="4" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B758" s="4" t="s">
         <v>5</v>
@@ -8790,7 +9369,7 @@
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759" s="4" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B759" s="4" t="s">
         <v>5</v>
@@ -8798,16 +9377,1949 @@
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A760" s="4" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B760" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A761" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="B761" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A762" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="B762" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A763" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B763" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A764" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B764" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A765" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="B765" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A766" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B766" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A767" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B767" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A768" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B768" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A769" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B769" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A770" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B770" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A771" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B771" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A772" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B772" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A773" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B773" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A774" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B774" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A775" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B775" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A776" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B776" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A777" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B777" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A778" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B778" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A779" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B779" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A780" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B780" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A781" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B781" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A782" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B782" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A783" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B783" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A784" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B784" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A785" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B785" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A786" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="B786" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A787" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B787" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A788" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B788" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A789" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="B789" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A790" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="B790" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A791" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="B791" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A792" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="B792" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A793" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="B793" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A794" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="B794" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A795" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="B795" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A796" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="B796" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A797" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="B797" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A798" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B798" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A799" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="B799" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A800" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="B800" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A801" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="B801" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A802" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="B802" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A803" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="B803" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A804" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="B804" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A805" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="B805" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A806" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="B806" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A807" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="B807" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A808" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="B808" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A809" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="B809" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A810" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="B810" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A811" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="B811" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A812" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="B812" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A813" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="B813" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A814" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="B814" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A815" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="B815" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A816" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="B816" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A817" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="B817" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A818" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B818" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A819" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="B819" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A820" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="B820" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A821" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="B821" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A822" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="B822" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A823" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="B823" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A824" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="B824" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A825" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="B825" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A826" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="B826" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A827" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="B827" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A828" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="B828" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A829" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="B829" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A830" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="B830" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A831" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="B831" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A832" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="B832" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A833" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="B833" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A834" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="B834" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A835" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B835" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A836" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="B836" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A837" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="B837" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A838" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="B838" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A839" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="B839" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A840" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="B840" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A841" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="B841" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A842" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="B842" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A843" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="B843" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A844" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="B844" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A845" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="B845" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A846" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="B846" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A847" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="B847" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A848" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="B848" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A849" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="B849" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A850" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B850" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A851" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="B851" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A852" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="B852" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A853" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="B853" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A854" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="B854" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A855" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="B855" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A856" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="B856" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A857" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="B857" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A858" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="B858" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A859" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="B859" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A860" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="B860" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A861" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="B861" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A862" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="B862" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A863" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="B863" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A864" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="B864" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A865" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="B865" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A866" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="B866" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A867" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="B867" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A868" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="B868" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A869" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="B869" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A870" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="B870" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A871" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="B871" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A872" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="B872" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A873" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="B873" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A874" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="B874" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A875" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="B875" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A876" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="B876" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A877" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="B877" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A878" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="B878" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A879" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="B879" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A880" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="B880" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A881" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="B881" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A882" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="B882" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A883" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="B883" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A884" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="B884" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A885" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="B885" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A886" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="B886" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A887" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="B887" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A888" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="B888" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A889" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="B889" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A890" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="B890" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A891" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="B891" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A892" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="B892" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A893" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="B893" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A894" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="B894" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A895" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="B895" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A896" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="B896" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A897" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="B897" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A898" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="B898" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A899" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="B899" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A900" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="B900" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A901" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="B901" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A902" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="B902" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A903" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="B903" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A904" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="B904" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A905" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="B905" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A906" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="B906" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A907" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="B907" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A908" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="B908" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A909" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="B909" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A910" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="B910" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A911" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="B911" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A912" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="B912" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A913" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="B913" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A914" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="B914" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A915" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="B915" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A916" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="B916" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A917" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="B917" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A918" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="B918" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A919" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="B919" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A920" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="B920" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A921" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="B921" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A922" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="B922" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A923" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="B923" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A924" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="B924" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A925" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="B925" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A926" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="B926" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A927" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="B927" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A928" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="B928" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A929" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="B929" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A930" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="B930" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A931" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="B931" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>755</v>
+      </c>
+      <c r="B932" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A933" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="B933" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A934" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="B934" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A935" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="B935" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A936" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="B936" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A937" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="B937" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A938" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="B938" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A939" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="B939" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A940" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="B940" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>917</v>
+      </c>
+      <c r="B941" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>918</v>
+      </c>
+      <c r="B942" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>919</v>
+      </c>
+      <c r="B943" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>920</v>
+      </c>
+      <c r="B944" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>921</v>
+      </c>
+      <c r="B945" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>919</v>
+      </c>
+      <c r="B946" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>920</v>
+      </c>
+      <c r="B947" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>922</v>
+      </c>
+      <c r="B948" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>923</v>
+      </c>
+      <c r="B949" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>922</v>
+      </c>
+      <c r="B950" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>923</v>
+      </c>
+      <c r="B951" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A952" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="B952" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A953" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="B953" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A954" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="B954" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A955" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="B955" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A956" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="B956" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A957" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="B957" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A958" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="B958" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A959" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="B959" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A960" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="B960" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A961" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="B961" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>934</v>
+      </c>
+      <c r="B962" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>935</v>
+      </c>
+      <c r="B963" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>936</v>
+      </c>
+      <c r="B964" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>935</v>
+      </c>
+      <c r="B965" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>937</v>
+      </c>
+      <c r="B966" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>938</v>
+      </c>
+      <c r="B967" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>936</v>
+      </c>
+      <c r="B968" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>939</v>
+      </c>
+      <c r="B969" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>937</v>
+      </c>
+      <c r="B970" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>939</v>
+      </c>
+      <c r="B971" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>940</v>
+      </c>
+      <c r="B972" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>941</v>
+      </c>
+      <c r="B973" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>942</v>
+      </c>
+      <c r="B974" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>943</v>
+      </c>
+      <c r="B975" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>944</v>
+      </c>
+      <c r="B976" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>945</v>
+      </c>
+      <c r="B977" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>946</v>
+      </c>
+      <c r="B978" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>947</v>
+      </c>
+      <c r="B979" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>948</v>
+      </c>
+      <c r="B980" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>949</v>
+      </c>
+      <c r="B981" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>950</v>
+      </c>
+      <c r="B982" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>951</v>
+      </c>
+      <c r="B983" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>952</v>
+      </c>
+      <c r="B984" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>950</v>
+      </c>
+      <c r="B985" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>321</v>
+      </c>
+      <c r="B986" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>953</v>
+      </c>
+      <c r="B987" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>954</v>
+      </c>
+      <c r="B988" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>955</v>
+      </c>
+      <c r="B989" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>956</v>
+      </c>
+      <c r="B990" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>957</v>
+      </c>
+      <c r="B991" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>958</v>
+      </c>
+      <c r="B992" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>959</v>
+      </c>
+      <c r="B993" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>960</v>
+      </c>
+      <c r="B994" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>961</v>
+      </c>
+      <c r="B995" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>962</v>
+      </c>
+      <c r="B996" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>963</v>
+      </c>
+      <c r="B997" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>964</v>
+      </c>
+      <c r="B998" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>965</v>
+      </c>
+      <c r="B999" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>966</v>
+      </c>
+      <c r="B1000" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>967</v>
+      </c>
+      <c r="B1001" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1002" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="B1002" s="4" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/DBA/Reportes BI/2021/Facturación/tipo_financiador.xlsx
+++ b/DBA/Reportes BI/2021/Facturación/tipo_financiador.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$B$1021</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="988">
   <si>
     <t xml:space="preserve">Financiador</t>
   </si>
@@ -1390,9 +1393,6 @@
     <t xml:space="preserve">PAMI extra capi - INSSJP (PAMI extra capita)</t>
   </si>
   <si>
-    <t xml:space="preserve">PAMI Extra Cápita</t>
-  </si>
-  <si>
     <t xml:space="preserve">PASTEUR - OBRA SOCIAL DEL PERSONAL DE LA SANIDAD LUIS PASTEUR</t>
   </si>
   <si>
@@ -2932,9 +2932,6 @@
     <t xml:space="preserve">OSPM MARITIMO - OBRA SOCIAL DEL PERSONAL MARITIMO</t>
   </si>
   <si>
-    <t xml:space="preserve">Facoep- OOSS</t>
-  </si>
-  <si>
     <t xml:space="preserve">ACA SALUD / AVA - ACA SALUD COOPERATIVA DE PRESTACION DE SERVICIOS MEDICO ASISTENCIALES LIMITADA</t>
   </si>
   <si>
@@ -2959,9 +2956,6 @@
     <t xml:space="preserve">INSSJP PAMI - Instituto Nacional de Seguridad Social para Jubilados y Pensionados</t>
   </si>
   <si>
-    <t xml:space="preserve">PAMI</t>
-  </si>
-  <si>
     <t xml:space="preserve">SAN CRISTOBAL S - SAN CRISTOBAL SOCIEDAD MUTUAL DE SEGUROS GENERALES</t>
   </si>
   <si>
@@ -2987,6 +2981,12 @@
   </si>
   <si>
     <t xml:space="preserve">ATANOR - OBRA SOCIAL ATANOR S.A. MIXTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPAUSS - INSTITUTO SERVICIOS SOCIALES.T.N.TIERRA DEL FUEGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COBOT - OBRA SOCIAL CABOT ARGENTINA</t>
   </si>
 </sst>
 </file>
@@ -3116,6 +3116,30 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB9B8B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -3179,18 +3203,22 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1020"/>
+  <dimension ref="A1:B1022"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A983" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1003" activeCellId="0" sqref="A1003:B1020"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1000" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1026" activeCellId="0" sqref="B1026"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="145.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.71"/>
@@ -6792,13 +6820,13 @@
       <c r="A450" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B450" s="4" t="s">
-        <v>456</v>
+      <c r="B450" s="0" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B451" s="4" t="s">
         <v>5</v>
@@ -6806,7 +6834,7 @@
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B452" s="4" t="s">
         <v>5</v>
@@ -6814,7 +6842,7 @@
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B453" s="4" t="s">
         <v>5</v>
@@ -6822,7 +6850,7 @@
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B454" s="4" t="s">
         <v>5</v>
@@ -6830,7 +6858,7 @@
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B455" s="4" t="s">
         <v>5</v>
@@ -6838,7 +6866,7 @@
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B456" s="4" t="s">
         <v>5</v>
@@ -6846,7 +6874,7 @@
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B457" s="4" t="s">
         <v>5</v>
@@ -6854,7 +6882,7 @@
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B458" s="4" t="s">
         <v>5</v>
@@ -6862,7 +6890,7 @@
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B459" s="4" t="s">
         <v>5</v>
@@ -6870,7 +6898,7 @@
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B460" s="4" t="s">
         <v>5</v>
@@ -6878,7 +6906,7 @@
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B461" s="4" t="s">
         <v>5</v>
@@ -6886,7 +6914,7 @@
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B462" s="4" t="s">
         <v>5</v>
@@ -6894,7 +6922,7 @@
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B463" s="4" t="s">
         <v>5</v>
@@ -6902,7 +6930,7 @@
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B464" s="4" t="s">
         <v>5</v>
@@ -6910,7 +6938,7 @@
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B465" s="4" t="s">
         <v>5</v>
@@ -6918,7 +6946,7 @@
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B466" s="4" t="s">
         <v>5</v>
@@ -6926,7 +6954,7 @@
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B467" s="4" t="s">
         <v>5</v>
@@ -6934,7 +6962,7 @@
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B468" s="4" t="s">
         <v>5</v>
@@ -6942,7 +6970,7 @@
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B469" s="4" t="s">
         <v>5</v>
@@ -6950,7 +6978,7 @@
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B470" s="4" t="s">
         <v>5</v>
@@ -6958,7 +6986,7 @@
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B471" s="4" t="s">
         <v>5</v>
@@ -6966,7 +6994,7 @@
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B472" s="4" t="s">
         <v>5</v>
@@ -6974,7 +7002,7 @@
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B473" s="4" t="s">
         <v>5</v>
@@ -6982,7 +7010,7 @@
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B474" s="4" t="s">
         <v>5</v>
@@ -6990,7 +7018,7 @@
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B475" s="4" t="s">
         <v>5</v>
@@ -6998,7 +7026,7 @@
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B476" s="4" t="s">
         <v>5</v>
@@ -7006,7 +7034,7 @@
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B477" s="4" t="s">
         <v>5</v>
@@ -7014,7 +7042,7 @@
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B478" s="4" t="s">
         <v>5</v>
@@ -7022,7 +7050,7 @@
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B479" s="4" t="s">
         <v>5</v>
@@ -7030,7 +7058,7 @@
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B480" s="4" t="s">
         <v>5</v>
@@ -7038,7 +7066,7 @@
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B481" s="4" t="s">
         <v>5</v>
@@ -7046,7 +7074,7 @@
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B482" s="4" t="s">
         <v>5</v>
@@ -7054,7 +7082,7 @@
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B483" s="4" t="s">
         <v>5</v>
@@ -7062,7 +7090,7 @@
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B484" s="4" t="s">
         <v>5</v>
@@ -7070,7 +7098,7 @@
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B485" s="4" t="s">
         <v>5</v>
@@ -7078,7 +7106,7 @@
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B486" s="4" t="s">
         <v>5</v>
@@ -7086,7 +7114,7 @@
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B487" s="4" t="s">
         <v>5</v>
@@ -7094,7 +7122,7 @@
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B488" s="4" t="s">
         <v>5</v>
@@ -7102,7 +7130,7 @@
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B489" s="4" t="s">
         <v>5</v>
@@ -7110,7 +7138,7 @@
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B490" s="4" t="s">
         <v>5</v>
@@ -7118,7 +7146,7 @@
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B491" s="4" t="s">
         <v>5</v>
@@ -7126,7 +7154,7 @@
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B492" s="4" t="s">
         <v>76</v>
@@ -7134,7 +7162,7 @@
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B493" s="4" t="s">
         <v>5</v>
@@ -7142,7 +7170,7 @@
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B494" s="4" t="s">
         <v>5</v>
@@ -7150,7 +7178,7 @@
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B495" s="4" t="s">
         <v>5</v>
@@ -7158,7 +7186,7 @@
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B496" s="4" t="s">
         <v>5</v>
@@ -7166,7 +7194,7 @@
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B497" s="4" t="s">
         <v>5</v>
@@ -7174,7 +7202,7 @@
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B498" s="4" t="s">
         <v>5</v>
@@ -7182,7 +7210,7 @@
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B499" s="4" t="s">
         <v>5</v>
@@ -7190,7 +7218,7 @@
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B500" s="4" t="s">
         <v>5</v>
@@ -7198,7 +7226,7 @@
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B501" s="4" t="s">
         <v>5</v>
@@ -7206,7 +7234,7 @@
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B502" s="4" t="s">
         <v>5</v>
@@ -7214,7 +7242,7 @@
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B503" s="4" t="s">
         <v>5</v>
@@ -7222,7 +7250,7 @@
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B504" s="4" t="s">
         <v>5</v>
@@ -7230,7 +7258,7 @@
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B505" s="4" t="s">
         <v>5</v>
@@ -7238,7 +7266,7 @@
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B506" s="4" t="s">
         <v>5</v>
@@ -7246,7 +7274,7 @@
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B507" s="4" t="s">
         <v>5</v>
@@ -7254,7 +7282,7 @@
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B508" s="4" t="s">
         <v>5</v>
@@ -7262,7 +7290,7 @@
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B509" s="4" t="s">
         <v>5</v>
@@ -7270,7 +7298,7 @@
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B510" s="4" t="s">
         <v>5</v>
@@ -7278,7 +7306,7 @@
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B511" s="4" t="s">
         <v>5</v>
@@ -7286,7 +7314,7 @@
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B512" s="4" t="s">
         <v>5</v>
@@ -7294,7 +7322,7 @@
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B513" s="4" t="s">
         <v>5</v>
@@ -7302,7 +7330,7 @@
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B514" s="4" t="s">
         <v>5</v>
@@ -7310,7 +7338,7 @@
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B515" s="4" t="s">
         <v>5</v>
@@ -7318,7 +7346,7 @@
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B516" s="4" t="s">
         <v>5</v>
@@ -7326,7 +7354,7 @@
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B517" s="4" t="s">
         <v>5</v>
@@ -7334,7 +7362,7 @@
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B518" s="4" t="s">
         <v>5</v>
@@ -7342,7 +7370,7 @@
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B519" s="4" t="s">
         <v>5</v>
@@ -7350,7 +7378,7 @@
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B520" s="4" t="s">
         <v>5</v>
@@ -7358,7 +7386,7 @@
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B521" s="4" t="s">
         <v>3</v>
@@ -7366,7 +7394,7 @@
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B522" s="4" t="s">
         <v>3</v>
@@ -7374,7 +7402,7 @@
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B523" s="4" t="s">
         <v>3</v>
@@ -7382,7 +7410,7 @@
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B524" s="4" t="s">
         <v>5</v>
@@ -7390,7 +7418,7 @@
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B525" s="4" t="s">
         <v>5</v>
@@ -7398,7 +7426,7 @@
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B526" s="4" t="s">
         <v>5</v>
@@ -7406,7 +7434,7 @@
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B527" s="4" t="s">
         <v>5</v>
@@ -7414,7 +7442,7 @@
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B528" s="4" t="s">
         <v>5</v>
@@ -7422,7 +7450,7 @@
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B529" s="4" t="s">
         <v>3</v>
@@ -7430,7 +7458,7 @@
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B530" s="4" t="s">
         <v>3</v>
@@ -7438,7 +7466,7 @@
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B531" s="4" t="s">
         <v>5</v>
@@ -7446,7 +7474,7 @@
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B532" s="4" t="s">
         <v>5</v>
@@ -7454,7 +7482,7 @@
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B533" s="4" t="s">
         <v>5</v>
@@ -7462,7 +7490,7 @@
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B534" s="4" t="s">
         <v>5</v>
@@ -7470,7 +7498,7 @@
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B535" s="4" t="s">
         <v>5</v>
@@ -7478,7 +7506,7 @@
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B536" s="4" t="s">
         <v>3</v>
@@ -7486,7 +7514,7 @@
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B537" s="4" t="s">
         <v>5</v>
@@ -7494,7 +7522,7 @@
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B538" s="4" t="s">
         <v>3</v>
@@ -7502,7 +7530,7 @@
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B539" s="4" t="s">
         <v>3</v>
@@ -7510,7 +7538,7 @@
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B540" s="4" t="s">
         <v>5</v>
@@ -7518,7 +7546,7 @@
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B541" s="4" t="s">
         <v>5</v>
@@ -7526,15 +7554,15 @@
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B542" s="4" t="s">
         <v>548</v>
-      </c>
-      <c r="B542" s="4" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B543" s="4" t="s">
         <v>5</v>
@@ -7542,7 +7570,7 @@
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B544" s="4" t="s">
         <v>5</v>
@@ -7550,7 +7578,7 @@
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B545" s="4" t="s">
         <v>5</v>
@@ -7558,7 +7586,7 @@
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B546" s="4" t="s">
         <v>5</v>
@@ -7566,7 +7594,7 @@
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B547" s="4" t="s">
         <v>5</v>
@@ -7574,7 +7602,7 @@
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B548" s="4" t="s">
         <v>5</v>
@@ -7582,7 +7610,7 @@
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B549" s="4" t="s">
         <v>5</v>
@@ -7590,7 +7618,7 @@
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B550" s="4" t="s">
         <v>5</v>
@@ -7598,7 +7626,7 @@
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B551" s="4" t="s">
         <v>5</v>
@@ -7606,7 +7634,7 @@
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B552" s="4" t="s">
         <v>5</v>
@@ -7614,7 +7642,7 @@
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B553" s="4" t="s">
         <v>5</v>
@@ -7622,7 +7650,7 @@
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B554" s="4" t="s">
         <v>5</v>
@@ -7630,7 +7658,7 @@
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B555" s="4" t="s">
         <v>5</v>
@@ -7638,7 +7666,7 @@
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B556" s="4" t="s">
         <v>5</v>
@@ -7646,7 +7674,7 @@
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B557" s="4" t="s">
         <v>5</v>
@@ -7654,7 +7682,7 @@
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B558" s="4" t="s">
         <v>5</v>
@@ -7662,7 +7690,7 @@
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B559" s="4" t="s">
         <v>3</v>
@@ -7670,7 +7698,7 @@
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B560" s="4" t="s">
         <v>3</v>
@@ -7678,7 +7706,7 @@
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B561" s="4" t="s">
         <v>142</v>
@@ -7686,7 +7714,7 @@
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B562" s="4" t="s">
         <v>5</v>
@@ -7694,7 +7722,7 @@
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B563" s="4" t="s">
         <v>5</v>
@@ -7702,7 +7730,7 @@
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B564" s="4" t="s">
         <v>5</v>
@@ -7710,7 +7738,7 @@
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B565" s="4" t="s">
         <v>5</v>
@@ -7718,7 +7746,7 @@
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B566" s="4" t="s">
         <v>5</v>
@@ -7726,7 +7754,7 @@
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B567" s="4" t="s">
         <v>3</v>
@@ -7734,7 +7762,7 @@
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B568" s="4" t="s">
         <v>5</v>
@@ -7742,7 +7770,7 @@
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B569" s="4" t="s">
         <v>5</v>
@@ -7750,7 +7778,7 @@
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B570" s="4" t="s">
         <v>5</v>
@@ -7758,7 +7786,7 @@
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B571" s="4" t="s">
         <v>5</v>
@@ -7766,7 +7794,7 @@
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B572" s="4" t="s">
         <v>5</v>
@@ -7774,7 +7802,7 @@
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B573" s="4" t="s">
         <v>5</v>
@@ -7782,7 +7810,7 @@
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B574" s="4" t="s">
         <v>5</v>
@@ -7790,7 +7818,7 @@
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B575" s="4" t="s">
         <v>5</v>
@@ -7798,7 +7826,7 @@
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B576" s="4" t="s">
         <v>5</v>
@@ -7806,7 +7834,7 @@
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B577" s="4" t="s">
         <v>5</v>
@@ -7814,7 +7842,7 @@
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B578" s="4" t="s">
         <v>5</v>
@@ -7822,7 +7850,7 @@
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B579" s="4" t="s">
         <v>5</v>
@@ -7830,7 +7858,7 @@
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B580" s="4" t="s">
         <v>5</v>
@@ -7838,7 +7866,7 @@
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B581" s="4" t="s">
         <v>5</v>
@@ -7846,7 +7874,7 @@
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B582" s="4" t="s">
         <v>5</v>
@@ -7854,7 +7882,7 @@
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B583" s="4" t="s">
         <v>5</v>
@@ -7862,7 +7890,7 @@
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B584" s="4" t="s">
         <v>5</v>
@@ -7870,7 +7898,7 @@
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B585" s="4" t="s">
         <v>72</v>
@@ -7878,7 +7906,7 @@
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B586" s="4" t="s">
         <v>5</v>
@@ -7886,7 +7914,7 @@
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B587" s="4" t="s">
         <v>5</v>
@@ -7894,7 +7922,7 @@
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B588" s="4" t="s">
         <v>5</v>
@@ -7902,7 +7930,7 @@
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B589" s="4" t="s">
         <v>5</v>
@@ -7910,7 +7938,7 @@
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B590" s="4" t="s">
         <v>5</v>
@@ -7918,7 +7946,7 @@
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B591" s="4" t="s">
         <v>5</v>
@@ -7926,7 +7954,7 @@
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B592" s="4" t="s">
         <v>5</v>
@@ -7934,7 +7962,7 @@
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B593" s="4" t="s">
         <v>5</v>
@@ -7942,7 +7970,7 @@
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B594" s="4" t="s">
         <v>5</v>
@@ -7950,7 +7978,7 @@
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B595" s="4" t="s">
         <v>5</v>
@@ -7958,7 +7986,7 @@
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B596" s="4" t="s">
         <v>3</v>
@@ -7966,7 +7994,7 @@
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B597" s="4" t="s">
         <v>5</v>
@@ -7974,7 +8002,7 @@
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B598" s="4" t="s">
         <v>3</v>
@@ -7982,7 +8010,7 @@
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B599" s="4" t="s">
         <v>5</v>
@@ -7990,7 +8018,7 @@
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B600" s="4" t="s">
         <v>5</v>
@@ -7998,7 +8026,7 @@
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B601" s="4" t="s">
         <v>5</v>
@@ -8006,7 +8034,7 @@
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B602" s="4" t="s">
         <v>5</v>
@@ -8014,7 +8042,7 @@
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B603" s="4" t="s">
         <v>5</v>
@@ -8022,7 +8050,7 @@
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B604" s="4" t="s">
         <v>3</v>
@@ -8030,7 +8058,7 @@
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B605" s="4" t="s">
         <v>5</v>
@@ -8038,7 +8066,7 @@
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B606" s="4" t="s">
         <v>5</v>
@@ -8046,7 +8074,7 @@
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B607" s="4" t="s">
         <v>5</v>
@@ -8054,7 +8082,7 @@
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B608" s="4" t="s">
         <v>3</v>
@@ -8062,7 +8090,7 @@
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B609" s="4" t="s">
         <v>5</v>
@@ -8070,7 +8098,7 @@
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B610" s="4" t="s">
         <v>3</v>
@@ -8078,7 +8106,7 @@
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B611" s="4" t="s">
         <v>5</v>
@@ -8086,7 +8114,7 @@
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B612" s="4" t="s">
         <v>5</v>
@@ -8094,7 +8122,7 @@
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B613" s="4" t="s">
         <v>5</v>
@@ -8102,7 +8130,7 @@
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B614" s="4" t="s">
         <v>5</v>
@@ -8110,7 +8138,7 @@
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B615" s="4" t="s">
         <v>5</v>
@@ -8118,7 +8146,7 @@
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B616" s="4" t="s">
         <v>5</v>
@@ -8126,7 +8154,7 @@
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B617" s="4" t="s">
         <v>5</v>
@@ -8134,7 +8162,7 @@
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B618" s="4" t="s">
         <v>5</v>
@@ -8142,7 +8170,7 @@
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B619" s="4" t="s">
         <v>5</v>
@@ -8150,7 +8178,7 @@
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B620" s="4" t="s">
         <v>5</v>
@@ -8158,7 +8186,7 @@
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B621" s="4" t="s">
         <v>5</v>
@@ -8166,7 +8194,7 @@
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B622" s="4" t="s">
         <v>3</v>
@@ -8174,7 +8202,7 @@
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B623" s="4" t="s">
         <v>5</v>
@@ -8182,7 +8210,7 @@
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B624" s="4" t="s">
         <v>3</v>
@@ -8190,7 +8218,7 @@
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B625" s="4" t="s">
         <v>5</v>
@@ -8198,7 +8226,7 @@
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B626" s="4" t="s">
         <v>3</v>
@@ -8206,7 +8234,7 @@
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B627" s="4" t="s">
         <v>5</v>
@@ -8214,7 +8242,7 @@
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B628" s="4" t="s">
         <v>5</v>
@@ -8222,7 +8250,7 @@
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B629" s="4" t="s">
         <v>5</v>
@@ -8230,7 +8258,7 @@
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B630" s="4" t="s">
         <v>3</v>
@@ -8238,7 +8266,7 @@
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B631" s="4" t="s">
         <v>5</v>
@@ -8246,7 +8274,7 @@
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B632" s="4" t="s">
         <v>5</v>
@@ -8254,7 +8282,7 @@
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B633" s="4" t="s">
         <v>5</v>
@@ -8262,7 +8290,7 @@
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B634" s="4" t="s">
         <v>5</v>
@@ -8270,7 +8298,7 @@
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B635" s="4" t="s">
         <v>5</v>
@@ -8278,7 +8306,7 @@
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B636" s="4" t="s">
         <v>5</v>
@@ -8286,7 +8314,7 @@
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B637" s="4" t="s">
         <v>5</v>
@@ -8294,7 +8322,7 @@
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B638" s="4" t="s">
         <v>5</v>
@@ -8302,7 +8330,7 @@
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B639" s="4" t="s">
         <v>5</v>
@@ -8310,7 +8338,7 @@
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B640" s="4" t="s">
         <v>3</v>
@@ -8318,7 +8346,7 @@
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B641" s="4" t="s">
         <v>5</v>
@@ -8326,7 +8354,7 @@
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B642" s="4" t="s">
         <v>5</v>
@@ -8334,7 +8362,7 @@
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B643" s="4" t="s">
         <v>5</v>
@@ -8342,7 +8370,7 @@
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B644" s="4" t="s">
         <v>5</v>
@@ -8350,7 +8378,7 @@
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B645" s="4" t="s">
         <v>5</v>
@@ -8358,7 +8386,7 @@
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B646" s="4" t="s">
         <v>5</v>
@@ -8366,7 +8394,7 @@
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B647" s="4" t="s">
         <v>5</v>
@@ -8374,7 +8402,7 @@
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B648" s="4" t="s">
         <v>5</v>
@@ -8382,7 +8410,7 @@
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B649" s="4" t="s">
         <v>5</v>
@@ -8390,7 +8418,7 @@
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B650" s="4" t="s">
         <v>5</v>
@@ -8398,7 +8426,7 @@
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B651" s="4" t="s">
         <v>5</v>
@@ -8406,7 +8434,7 @@
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B652" s="4" t="s">
         <v>5</v>
@@ -8414,7 +8442,7 @@
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B653" s="4" t="s">
         <v>5</v>
@@ -8422,7 +8450,7 @@
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B654" s="4" t="s">
         <v>5</v>
@@ -8430,7 +8458,7 @@
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B655" s="4" t="s">
         <v>5</v>
@@ -8438,7 +8466,7 @@
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B656" s="4" t="s">
         <v>5</v>
@@ -8446,7 +8474,7 @@
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B657" s="4" t="s">
         <v>5</v>
@@ -8454,7 +8482,7 @@
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B658" s="4" t="s">
         <v>5</v>
@@ -8462,7 +8490,7 @@
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B659" s="4" t="s">
         <v>5</v>
@@ -8470,7 +8498,7 @@
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B660" s="4" t="s">
         <v>5</v>
@@ -8478,7 +8506,7 @@
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B661" s="4" t="s">
         <v>5</v>
@@ -8486,7 +8514,7 @@
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B662" s="4" t="s">
         <v>5</v>
@@ -8494,7 +8522,7 @@
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B663" s="4" t="s">
         <v>5</v>
@@ -8502,7 +8530,7 @@
     </row>
     <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B664" s="4" t="s">
         <v>5</v>
@@ -8510,7 +8538,7 @@
     </row>
     <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B665" s="4" t="s">
         <v>5</v>
@@ -8518,7 +8546,7 @@
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B666" s="4" t="s">
         <v>5</v>
@@ -8526,7 +8554,7 @@
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B667" s="4" t="s">
         <v>5</v>
@@ -8534,7 +8562,7 @@
     </row>
     <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B668" s="4" t="s">
         <v>5</v>
@@ -8542,7 +8570,7 @@
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B669" s="4" t="s">
         <v>5</v>
@@ -8550,7 +8578,7 @@
     </row>
     <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B670" s="4" t="s">
         <v>5</v>
@@ -8558,7 +8586,7 @@
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B671" s="4" t="s">
         <v>5</v>
@@ -8566,7 +8594,7 @@
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B672" s="4" t="s">
         <v>5</v>
@@ -8574,7 +8602,7 @@
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B673" s="4" t="s">
         <v>5</v>
@@ -8582,7 +8610,7 @@
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B674" s="4" t="s">
         <v>5</v>
@@ -8590,7 +8618,7 @@
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B675" s="4" t="s">
         <v>5</v>
@@ -8598,7 +8626,7 @@
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B676" s="4" t="s">
         <v>5</v>
@@ -8606,7 +8634,7 @@
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B677" s="4" t="s">
         <v>5</v>
@@ -8614,7 +8642,7 @@
     </row>
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B678" s="4" t="s">
         <v>5</v>
@@ -8622,7 +8650,7 @@
     </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B679" s="4" t="s">
         <v>5</v>
@@ -8630,7 +8658,7 @@
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B680" s="4" t="s">
         <v>5</v>
@@ -8638,7 +8666,7 @@
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B681" s="4" t="s">
         <v>5</v>
@@ -8646,7 +8674,7 @@
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B682" s="4" t="s">
         <v>5</v>
@@ -8654,7 +8682,7 @@
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B683" s="4" t="s">
         <v>5</v>
@@ -8662,7 +8690,7 @@
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B684" s="4" t="s">
         <v>5</v>
@@ -8670,7 +8698,7 @@
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B685" s="4" t="s">
         <v>5</v>
@@ -8678,7 +8706,7 @@
     </row>
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B686" s="4" t="s">
         <v>5</v>
@@ -8686,7 +8714,7 @@
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B687" s="4" t="s">
         <v>5</v>
@@ -8694,7 +8722,7 @@
     </row>
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B688" s="4" t="s">
         <v>5</v>
@@ -8702,7 +8730,7 @@
     </row>
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B689" s="4" t="s">
         <v>5</v>
@@ -8710,7 +8738,7 @@
     </row>
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B690" s="4" t="s">
         <v>5</v>
@@ -8718,7 +8746,7 @@
     </row>
     <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B691" s="4" t="s">
         <v>5</v>
@@ -8726,7 +8754,7 @@
     </row>
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B692" s="4" t="s">
         <v>5</v>
@@ -8734,7 +8762,7 @@
     </row>
     <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B693" s="4" t="s">
         <v>5</v>
@@ -8742,7 +8770,7 @@
     </row>
     <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B694" s="4" t="s">
         <v>5</v>
@@ -8750,7 +8778,7 @@
     </row>
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B695" s="4" t="s">
         <v>5</v>
@@ -8758,7 +8786,7 @@
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B696" s="4" t="s">
         <v>5</v>
@@ -8766,7 +8794,7 @@
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B697" s="4" t="s">
         <v>5</v>
@@ -8774,7 +8802,7 @@
     </row>
     <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B698" s="4" t="s">
         <v>5</v>
@@ -8782,7 +8810,7 @@
     </row>
     <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B699" s="4" t="s">
         <v>5</v>
@@ -8790,7 +8818,7 @@
     </row>
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B700" s="4" t="s">
         <v>5</v>
@@ -8798,7 +8826,7 @@
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B701" s="4" t="s">
         <v>5</v>
@@ -8806,7 +8834,7 @@
     </row>
     <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B702" s="4" t="s">
         <v>5</v>
@@ -8814,7 +8842,7 @@
     </row>
     <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B703" s="4" t="s">
         <v>5</v>
@@ -8822,7 +8850,7 @@
     </row>
     <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B704" s="4" t="s">
         <v>5</v>
@@ -8830,7 +8858,7 @@
     </row>
     <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B705" s="4" t="s">
         <v>5</v>
@@ -8838,7 +8866,7 @@
     </row>
     <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B706" s="4" t="s">
         <v>5</v>
@@ -8846,7 +8874,7 @@
     </row>
     <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B707" s="4" t="s">
         <v>5</v>
@@ -8854,7 +8882,7 @@
     </row>
     <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B708" s="4" t="s">
         <v>5</v>
@@ -8862,7 +8890,7 @@
     </row>
     <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B709" s="4" t="s">
         <v>5</v>
@@ -8870,7 +8898,7 @@
     </row>
     <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B710" s="4" t="s">
         <v>5</v>
@@ -8878,7 +8906,7 @@
     </row>
     <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B711" s="4" t="s">
         <v>5</v>
@@ -8886,7 +8914,7 @@
     </row>
     <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B712" s="4" t="s">
         <v>5</v>
@@ -8894,7 +8922,7 @@
     </row>
     <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B713" s="4" t="s">
         <v>72</v>
@@ -8902,7 +8930,7 @@
     </row>
     <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B714" s="4" t="s">
         <v>5</v>
@@ -8910,7 +8938,7 @@
     </row>
     <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B715" s="4" t="s">
         <v>5</v>
@@ -8918,7 +8946,7 @@
     </row>
     <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B716" s="4" t="s">
         <v>5</v>
@@ -8926,7 +8954,7 @@
     </row>
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B717" s="4" t="s">
         <v>5</v>
@@ -8934,7 +8962,7 @@
     </row>
     <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B718" s="4" t="s">
         <v>5</v>
@@ -8942,7 +8970,7 @@
     </row>
     <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B719" s="4" t="s">
         <v>5</v>
@@ -8950,7 +8978,7 @@
     </row>
     <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B720" s="4" t="s">
         <v>5</v>
@@ -8958,7 +8986,7 @@
     </row>
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B721" s="4" t="s">
         <v>5</v>
@@ -8966,7 +8994,7 @@
     </row>
     <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B722" s="4" t="s">
         <v>5</v>
@@ -8974,7 +9002,7 @@
     </row>
     <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B723" s="4" t="s">
         <v>5</v>
@@ -8982,7 +9010,7 @@
     </row>
     <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B724" s="4" t="s">
         <v>5</v>
@@ -8990,7 +9018,7 @@
     </row>
     <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B725" s="4" t="s">
         <v>5</v>
@@ -8998,7 +9026,7 @@
     </row>
     <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B726" s="4" t="s">
         <v>5</v>
@@ -9006,7 +9034,7 @@
     </row>
     <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B727" s="4" t="s">
         <v>5</v>
@@ -9014,7 +9042,7 @@
     </row>
     <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B728" s="4" t="s">
         <v>5</v>
@@ -9022,7 +9050,7 @@
     </row>
     <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B729" s="4" t="s">
         <v>5</v>
@@ -9030,7 +9058,7 @@
     </row>
     <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B730" s="4" t="s">
         <v>5</v>
@@ -9038,7 +9066,7 @@
     </row>
     <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B731" s="4" t="s">
         <v>5</v>
@@ -9046,7 +9074,7 @@
     </row>
     <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B732" s="4" t="s">
         <v>5</v>
@@ -9054,7 +9082,7 @@
     </row>
     <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B733" s="4" t="s">
         <v>5</v>
@@ -9062,7 +9090,7 @@
     </row>
     <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B734" s="4" t="s">
         <v>5</v>
@@ -9070,7 +9098,7 @@
     </row>
     <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B735" s="4" t="s">
         <v>5</v>
@@ -9078,7 +9106,7 @@
     </row>
     <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B736" s="4" t="s">
         <v>5</v>
@@ -9086,7 +9114,7 @@
     </row>
     <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B737" s="4" t="s">
         <v>5</v>
@@ -9094,7 +9122,7 @@
     </row>
     <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B738" s="4" t="s">
         <v>5</v>
@@ -9102,7 +9130,7 @@
     </row>
     <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B739" s="4" t="s">
         <v>5</v>
@@ -9110,7 +9138,7 @@
     </row>
     <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B740" s="4" t="s">
         <v>5</v>
@@ -9118,7 +9146,7 @@
     </row>
     <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B741" s="4" t="s">
         <v>3</v>
@@ -9126,7 +9154,7 @@
     </row>
     <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B742" s="4" t="s">
         <v>72</v>
@@ -9134,7 +9162,7 @@
     </row>
     <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B743" s="4" t="s">
         <v>5</v>
@@ -9142,7 +9170,7 @@
     </row>
     <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B744" s="4" t="s">
         <v>5</v>
@@ -9150,7 +9178,7 @@
     </row>
     <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B745" s="4" t="s">
         <v>5</v>
@@ -9158,7 +9186,7 @@
     </row>
     <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B746" s="4" t="s">
         <v>5</v>
@@ -9166,7 +9194,7 @@
     </row>
     <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B747" s="4" t="s">
         <v>5</v>
@@ -9174,7 +9202,7 @@
     </row>
     <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B748" s="4" t="s">
         <v>5</v>
@@ -9182,7 +9210,7 @@
     </row>
     <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B749" s="4" t="s">
         <v>5</v>
@@ -9190,7 +9218,7 @@
     </row>
     <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B750" s="4" t="s">
         <v>5</v>
@@ -9198,7 +9226,7 @@
     </row>
     <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B751" s="4" t="s">
         <v>5</v>
@@ -9206,7 +9234,7 @@
     </row>
     <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B752" s="4" t="s">
         <v>5</v>
@@ -9214,7 +9242,7 @@
     </row>
     <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B753" s="4" t="s">
         <v>5</v>
@@ -9222,7 +9250,7 @@
     </row>
     <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B754" s="4" t="s">
         <v>5</v>
@@ -9230,7 +9258,7 @@
     </row>
     <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B755" s="4" t="s">
         <v>5</v>
@@ -9238,7 +9266,7 @@
     </row>
     <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B756" s="4" t="s">
         <v>5</v>
@@ -9246,7 +9274,7 @@
     </row>
     <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B757" s="4" t="s">
         <v>5</v>
@@ -9254,7 +9282,7 @@
     </row>
     <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B758" s="4" t="s">
         <v>5</v>
@@ -9262,7 +9290,7 @@
     </row>
     <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B759" s="4" t="s">
         <v>5</v>
@@ -9270,7 +9298,7 @@
     </row>
     <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B760" s="4" t="s">
         <v>5</v>
@@ -9278,7 +9306,7 @@
     </row>
     <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B761" s="4" t="s">
         <v>5</v>
@@ -9286,7 +9314,7 @@
     </row>
     <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B762" s="4" t="s">
         <v>5</v>
@@ -9294,7 +9322,7 @@
     </row>
     <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B763" s="4" t="s">
         <v>3</v>
@@ -9302,7 +9330,7 @@
     </row>
     <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B764" s="4" t="s">
         <v>3</v>
@@ -9310,7 +9338,7 @@
     </row>
     <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B765" s="4" t="s">
         <v>5</v>
@@ -9318,7 +9346,7 @@
     </row>
     <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B766" s="4" t="s">
         <v>5</v>
@@ -9326,7 +9354,7 @@
     </row>
     <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B767" s="4" t="s">
         <v>5</v>
@@ -9334,7 +9362,7 @@
     </row>
     <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B768" s="4" t="s">
         <v>5</v>
@@ -9342,7 +9370,7 @@
     </row>
     <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B769" s="4" t="s">
         <v>5</v>
@@ -9350,15 +9378,15 @@
     </row>
     <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B770" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B771" s="4" t="s">
         <v>5</v>
@@ -9366,7 +9394,7 @@
     </row>
     <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B772" s="4" t="s">
         <v>5</v>
@@ -9374,7 +9402,7 @@
     </row>
     <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B773" s="4" t="s">
         <v>5</v>
@@ -9382,7 +9410,7 @@
     </row>
     <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B774" s="4" t="s">
         <v>5</v>
@@ -9390,7 +9418,7 @@
     </row>
     <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B775" s="4" t="s">
         <v>5</v>
@@ -9398,7 +9426,7 @@
     </row>
     <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B776" s="4" t="s">
         <v>5</v>
@@ -9406,7 +9434,7 @@
     </row>
     <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B777" s="4" t="s">
         <v>5</v>
@@ -9414,7 +9442,7 @@
     </row>
     <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B778" s="4" t="s">
         <v>5</v>
@@ -9422,7 +9450,7 @@
     </row>
     <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B779" s="4" t="s">
         <v>5</v>
@@ -9430,7 +9458,7 @@
     </row>
     <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B780" s="4" t="s">
         <v>5</v>
@@ -9438,7 +9466,7 @@
     </row>
     <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B781" s="4" t="s">
         <v>5</v>
@@ -9446,7 +9474,7 @@
     </row>
     <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B782" s="4" t="s">
         <v>5</v>
@@ -9454,7 +9482,7 @@
     </row>
     <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B783" s="4" t="s">
         <v>5</v>
@@ -9462,7 +9490,7 @@
     </row>
     <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B784" s="4" t="s">
         <v>5</v>
@@ -9470,7 +9498,7 @@
     </row>
     <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B785" s="4" t="s">
         <v>5</v>
@@ -9478,7 +9506,7 @@
     </row>
     <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B786" s="4" t="s">
         <v>5</v>
@@ -9486,7 +9514,7 @@
     </row>
     <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B787" s="4" t="s">
         <v>5</v>
@@ -9494,7 +9522,7 @@
     </row>
     <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B788" s="4" t="s">
         <v>5</v>
@@ -9502,7 +9530,7 @@
     </row>
     <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B789" s="4" t="s">
         <v>5</v>
@@ -9510,7 +9538,7 @@
     </row>
     <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B790" s="4" t="s">
         <v>5</v>
@@ -9518,7 +9546,7 @@
     </row>
     <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B791" s="4" t="s">
         <v>5</v>
@@ -9526,7 +9554,7 @@
     </row>
     <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B792" s="4" t="s">
         <v>5</v>
@@ -9534,7 +9562,7 @@
     </row>
     <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B793" s="4" t="s">
         <v>5</v>
@@ -9542,7 +9570,7 @@
     </row>
     <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B794" s="4" t="s">
         <v>5</v>
@@ -9550,7 +9578,7 @@
     </row>
     <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B795" s="4" t="s">
         <v>5</v>
@@ -9558,7 +9586,7 @@
     </row>
     <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B796" s="4" t="s">
         <v>5</v>
@@ -9566,7 +9594,7 @@
     </row>
     <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B797" s="4" t="s">
         <v>3</v>
@@ -9574,7 +9602,7 @@
     </row>
     <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B798" s="4" t="s">
         <v>3</v>
@@ -9582,7 +9610,7 @@
     </row>
     <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B799" s="4" t="s">
         <v>5</v>
@@ -9590,7 +9618,7 @@
     </row>
     <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B800" s="4" t="s">
         <v>5</v>
@@ -9598,7 +9626,7 @@
     </row>
     <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B801" s="4" t="s">
         <v>5</v>
@@ -9606,7 +9634,7 @@
     </row>
     <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B802" s="4" t="s">
         <v>5</v>
@@ -9614,7 +9642,7 @@
     </row>
     <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B803" s="4" t="s">
         <v>5</v>
@@ -9622,7 +9650,7 @@
     </row>
     <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B804" s="4" t="s">
         <v>5</v>
@@ -9630,7 +9658,7 @@
     </row>
     <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B805" s="4" t="s">
         <v>5</v>
@@ -9638,7 +9666,7 @@
     </row>
     <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B806" s="4" t="s">
         <v>5</v>
@@ -9646,7 +9674,7 @@
     </row>
     <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B807" s="4" t="s">
         <v>5</v>
@@ -9654,7 +9682,7 @@
     </row>
     <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B808" s="4" t="s">
         <v>3</v>
@@ -9662,7 +9690,7 @@
     </row>
     <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B809" s="4" t="s">
         <v>5</v>
@@ -9670,7 +9698,7 @@
     </row>
     <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B810" s="4" t="s">
         <v>5</v>
@@ -9678,7 +9706,7 @@
     </row>
     <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B811" s="4" t="s">
         <v>5</v>
@@ -9686,7 +9714,7 @@
     </row>
     <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B812" s="4" t="s">
         <v>5</v>
@@ -9694,7 +9722,7 @@
     </row>
     <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B813" s="4" t="s">
         <v>5</v>
@@ -9702,7 +9730,7 @@
     </row>
     <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B814" s="4" t="s">
         <v>5</v>
@@ -9710,7 +9738,7 @@
     </row>
     <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B815" s="4" t="s">
         <v>5</v>
@@ -9718,7 +9746,7 @@
     </row>
     <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B816" s="4" t="s">
         <v>5</v>
@@ -9726,7 +9754,7 @@
     </row>
     <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B817" s="4" t="s">
         <v>5</v>
@@ -9734,7 +9762,7 @@
     </row>
     <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B818" s="4" t="s">
         <v>5</v>
@@ -9742,7 +9770,7 @@
     </row>
     <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B819" s="4" t="s">
         <v>5</v>
@@ -9750,7 +9778,7 @@
     </row>
     <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B820" s="4" t="s">
         <v>5</v>
@@ -9758,7 +9786,7 @@
     </row>
     <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B821" s="4" t="s">
         <v>5</v>
@@ -9766,7 +9794,7 @@
     </row>
     <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B822" s="4" t="s">
         <v>5</v>
@@ -9774,7 +9802,7 @@
     </row>
     <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B823" s="4" t="s">
         <v>5</v>
@@ -9782,7 +9810,7 @@
     </row>
     <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B824" s="4" t="s">
         <v>5</v>
@@ -9790,7 +9818,7 @@
     </row>
     <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B825" s="4" t="s">
         <v>5</v>
@@ -9798,7 +9826,7 @@
     </row>
     <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B826" s="4" t="s">
         <v>5</v>
@@ -9806,7 +9834,7 @@
     </row>
     <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B827" s="4" t="s">
         <v>5</v>
@@ -9814,7 +9842,7 @@
     </row>
     <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B828" s="4" t="s">
         <v>5</v>
@@ -9822,7 +9850,7 @@
     </row>
     <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B829" s="4" t="s">
         <v>5</v>
@@ -9830,7 +9858,7 @@
     </row>
     <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B830" s="4" t="s">
         <v>5</v>
@@ -9838,7 +9866,7 @@
     </row>
     <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B831" s="4" t="s">
         <v>5</v>
@@ -9846,7 +9874,7 @@
     </row>
     <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B832" s="4" t="s">
         <v>5</v>
@@ -9854,7 +9882,7 @@
     </row>
     <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B833" s="4" t="s">
         <v>5</v>
@@ -9862,7 +9890,7 @@
     </row>
     <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B834" s="4" t="s">
         <v>5</v>
@@ -9870,7 +9898,7 @@
     </row>
     <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B835" s="4" t="s">
         <v>5</v>
@@ -9878,7 +9906,7 @@
     </row>
     <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B836" s="4" t="s">
         <v>5</v>
@@ -9886,7 +9914,7 @@
     </row>
     <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B837" s="4" t="s">
         <v>5</v>
@@ -9894,7 +9922,7 @@
     </row>
     <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B838" s="4" t="s">
         <v>5</v>
@@ -9902,7 +9930,7 @@
     </row>
     <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B839" s="4" t="s">
         <v>5</v>
@@ -9910,7 +9938,7 @@
     </row>
     <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B840" s="4" t="s">
         <v>5</v>
@@ -9918,7 +9946,7 @@
     </row>
     <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B841" s="4" t="s">
         <v>5</v>
@@ -9926,7 +9954,7 @@
     </row>
     <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B842" s="4" t="s">
         <v>5</v>
@@ -9934,7 +9962,7 @@
     </row>
     <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B843" s="4" t="s">
         <v>5</v>
@@ -9942,7 +9970,7 @@
     </row>
     <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B844" s="4" t="s">
         <v>5</v>
@@ -9950,7 +9978,7 @@
     </row>
     <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B845" s="4" t="s">
         <v>5</v>
@@ -9958,7 +9986,7 @@
     </row>
     <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B846" s="4" t="s">
         <v>5</v>
@@ -9966,7 +9994,7 @@
     </row>
     <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B847" s="4" t="s">
         <v>5</v>
@@ -9974,7 +10002,7 @@
     </row>
     <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B848" s="4" t="s">
         <v>5</v>
@@ -9982,7 +10010,7 @@
     </row>
     <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B849" s="4" t="s">
         <v>5</v>
@@ -9990,7 +10018,7 @@
     </row>
     <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B850" s="4" t="s">
         <v>5</v>
@@ -9998,7 +10026,7 @@
     </row>
     <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B851" s="4" t="s">
         <v>5</v>
@@ -10006,7 +10034,7 @@
     </row>
     <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B852" s="4" t="s">
         <v>5</v>
@@ -10014,7 +10042,7 @@
     </row>
     <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B853" s="4" t="s">
         <v>5</v>
@@ -10022,7 +10050,7 @@
     </row>
     <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B854" s="4" t="s">
         <v>5</v>
@@ -10030,7 +10058,7 @@
     </row>
     <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B855" s="4" t="s">
         <v>5</v>
@@ -10038,7 +10066,7 @@
     </row>
     <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B856" s="4" t="s">
         <v>5</v>
@@ -10046,7 +10074,7 @@
     </row>
     <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B857" s="4" t="s">
         <v>5</v>
@@ -10054,7 +10082,7 @@
     </row>
     <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B858" s="4" t="s">
         <v>5</v>
@@ -10062,7 +10090,7 @@
     </row>
     <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B859" s="4" t="s">
         <v>5</v>
@@ -10070,7 +10098,7 @@
     </row>
     <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B860" s="4" t="s">
         <v>5</v>
@@ -10078,7 +10106,7 @@
     </row>
     <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B861" s="4" t="s">
         <v>5</v>
@@ -10086,7 +10114,7 @@
     </row>
     <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B862" s="4" t="s">
         <v>5</v>
@@ -10094,7 +10122,7 @@
     </row>
     <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B863" s="4" t="s">
         <v>5</v>
@@ -10102,7 +10130,7 @@
     </row>
     <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B864" s="4" t="s">
         <v>5</v>
@@ -10110,7 +10138,7 @@
     </row>
     <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B865" s="4" t="s">
         <v>5</v>
@@ -10118,7 +10146,7 @@
     </row>
     <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B866" s="4" t="s">
         <v>5</v>
@@ -10126,7 +10154,7 @@
     </row>
     <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B867" s="4" t="s">
         <v>5</v>
@@ -10134,7 +10162,7 @@
     </row>
     <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B868" s="4" t="s">
         <v>5</v>
@@ -10142,7 +10170,7 @@
     </row>
     <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B869" s="4" t="s">
         <v>3</v>
@@ -10150,7 +10178,7 @@
     </row>
     <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B870" s="4" t="s">
         <v>5</v>
@@ -10158,7 +10186,7 @@
     </row>
     <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B871" s="4" t="s">
         <v>5</v>
@@ -10166,7 +10194,7 @@
     </row>
     <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B872" s="4" t="s">
         <v>5</v>
@@ -10174,7 +10202,7 @@
     </row>
     <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B873" s="4" t="s">
         <v>5</v>
@@ -10182,7 +10210,7 @@
     </row>
     <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B874" s="4" t="s">
         <v>5</v>
@@ -10190,7 +10218,7 @@
     </row>
     <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B875" s="4" t="s">
         <v>5</v>
@@ -10198,7 +10226,7 @@
     </row>
     <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B876" s="4" t="s">
         <v>5</v>
@@ -10206,7 +10234,7 @@
     </row>
     <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B877" s="4" t="s">
         <v>5</v>
@@ -10214,7 +10242,7 @@
     </row>
     <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B878" s="4" t="s">
         <v>5</v>
@@ -10222,7 +10250,7 @@
     </row>
     <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B879" s="4" t="s">
         <v>5</v>
@@ -10230,7 +10258,7 @@
     </row>
     <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B880" s="4" t="s">
         <v>5</v>
@@ -10238,7 +10266,7 @@
     </row>
     <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B881" s="4" t="s">
         <v>5</v>
@@ -10246,7 +10274,7 @@
     </row>
     <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B882" s="4" t="s">
         <v>5</v>
@@ -10254,7 +10282,7 @@
     </row>
     <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B883" s="4" t="s">
         <v>5</v>
@@ -10262,7 +10290,7 @@
     </row>
     <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B884" s="4" t="s">
         <v>5</v>
@@ -10270,7 +10298,7 @@
     </row>
     <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B885" s="4" t="s">
         <v>5</v>
@@ -10278,7 +10306,7 @@
     </row>
     <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B886" s="4" t="s">
         <v>5</v>
@@ -10286,7 +10314,7 @@
     </row>
     <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B887" s="4" t="s">
         <v>5</v>
@@ -10294,7 +10322,7 @@
     </row>
     <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B888" s="4" t="s">
         <v>5</v>
@@ -10302,7 +10330,7 @@
     </row>
     <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B889" s="4" t="s">
         <v>5</v>
@@ -10310,7 +10338,7 @@
     </row>
     <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B890" s="4" t="s">
         <v>5</v>
@@ -10318,7 +10346,7 @@
     </row>
     <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B891" s="4" t="s">
         <v>5</v>
@@ -10326,7 +10354,7 @@
     </row>
     <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B892" s="4" t="s">
         <v>5</v>
@@ -10334,7 +10362,7 @@
     </row>
     <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B893" s="4" t="s">
         <v>5</v>
@@ -10342,7 +10370,7 @@
     </row>
     <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B894" s="4" t="s">
         <v>5</v>
@@ -10350,7 +10378,7 @@
     </row>
     <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B895" s="4" t="s">
         <v>5</v>
@@ -10358,7 +10386,7 @@
     </row>
     <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B896" s="4" t="s">
         <v>5</v>
@@ -10366,7 +10394,7 @@
     </row>
     <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B897" s="4" t="s">
         <v>5</v>
@@ -10374,7 +10402,7 @@
     </row>
     <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B898" s="4" t="s">
         <v>5</v>
@@ -10382,7 +10410,7 @@
     </row>
     <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B899" s="4" t="s">
         <v>5</v>
@@ -10390,7 +10418,7 @@
     </row>
     <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B900" s="4" t="s">
         <v>5</v>
@@ -10398,7 +10426,7 @@
     </row>
     <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B901" s="4" t="s">
         <v>5</v>
@@ -10406,7 +10434,7 @@
     </row>
     <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B902" s="4" t="s">
         <v>5</v>
@@ -10414,7 +10442,7 @@
     </row>
     <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B903" s="4" t="s">
         <v>5</v>
@@ -10422,7 +10450,7 @@
     </row>
     <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B904" s="4" t="s">
         <v>5</v>
@@ -10430,7 +10458,7 @@
     </row>
     <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B905" s="4" t="s">
         <v>5</v>
@@ -10438,7 +10466,7 @@
     </row>
     <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B906" s="4" t="s">
         <v>5</v>
@@ -10446,7 +10474,7 @@
     </row>
     <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B907" s="4" t="s">
         <v>5</v>
@@ -10454,7 +10482,7 @@
     </row>
     <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B908" s="4" t="s">
         <v>5</v>
@@ -10462,7 +10490,7 @@
     </row>
     <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B909" s="4" t="s">
         <v>5</v>
@@ -10470,7 +10498,7 @@
     </row>
     <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B910" s="4" t="s">
         <v>5</v>
@@ -10478,7 +10506,7 @@
     </row>
     <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B911" s="4" t="s">
         <v>5</v>
@@ -10486,7 +10514,7 @@
     </row>
     <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B912" s="4" t="s">
         <v>5</v>
@@ -10494,7 +10522,7 @@
     </row>
     <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B913" s="4" t="s">
         <v>3</v>
@@ -10502,7 +10530,7 @@
     </row>
     <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B914" s="4" t="s">
         <v>5</v>
@@ -10510,7 +10538,7 @@
     </row>
     <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B915" s="4" t="s">
         <v>5</v>
@@ -10518,7 +10546,7 @@
     </row>
     <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B916" s="4" t="s">
         <v>5</v>
@@ -10526,7 +10554,7 @@
     </row>
     <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B917" s="4" t="s">
         <v>5</v>
@@ -10534,7 +10562,7 @@
     </row>
     <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B918" s="4" t="s">
         <v>5</v>
@@ -10542,7 +10570,7 @@
     </row>
     <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B919" s="4" t="s">
         <v>5</v>
@@ -10550,7 +10578,7 @@
     </row>
     <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B920" s="4" t="s">
         <v>5</v>
@@ -10558,7 +10586,7 @@
     </row>
     <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B921" s="4" t="s">
         <v>5</v>
@@ -10566,7 +10594,7 @@
     </row>
     <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B922" s="4" t="s">
         <v>5</v>
@@ -10574,7 +10602,7 @@
     </row>
     <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B923" s="4" t="s">
         <v>5</v>
@@ -10582,7 +10610,7 @@
     </row>
     <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B924" s="4" t="s">
         <v>5</v>
@@ -10590,7 +10618,7 @@
     </row>
     <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B925" s="4" t="s">
         <v>5</v>
@@ -10598,7 +10626,7 @@
     </row>
     <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B926" s="4" t="s">
         <v>5</v>
@@ -10606,7 +10634,7 @@
     </row>
     <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B927" s="4" t="s">
         <v>5</v>
@@ -10614,7 +10642,7 @@
     </row>
     <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B928" s="4" t="s">
         <v>5</v>
@@ -10622,7 +10650,7 @@
     </row>
     <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B929" s="4" t="s">
         <v>5</v>
@@ -10630,7 +10658,7 @@
     </row>
     <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B930" s="4" t="s">
         <v>5</v>
@@ -10638,7 +10666,7 @@
     </row>
     <row r="931" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B931" s="4" t="s">
         <v>5</v>
@@ -10646,7 +10674,7 @@
     </row>
     <row r="932" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="0" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B932" s="4" t="s">
         <v>5</v>
@@ -10654,7 +10682,7 @@
     </row>
     <row r="933" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B933" s="4" t="s">
         <v>5</v>
@@ -10662,7 +10690,7 @@
     </row>
     <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B934" s="4" t="s">
         <v>5</v>
@@ -10670,7 +10698,7 @@
     </row>
     <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B935" s="4" t="s">
         <v>5</v>
@@ -10678,7 +10706,7 @@
     </row>
     <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B936" s="4" t="s">
         <v>5</v>
@@ -10686,7 +10714,7 @@
     </row>
     <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B937" s="4" t="s">
         <v>5</v>
@@ -10694,7 +10722,7 @@
     </row>
     <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B938" s="4" t="s">
         <v>5</v>
@@ -10702,7 +10730,7 @@
     </row>
     <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B939" s="4" t="s">
         <v>5</v>
@@ -10710,7 +10738,7 @@
     </row>
     <row r="940" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B940" s="4" t="s">
         <v>5</v>
@@ -10718,7 +10746,7 @@
     </row>
     <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="0" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B941" s="4" t="s">
         <v>5</v>
@@ -10726,7 +10754,7 @@
     </row>
     <row r="942" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="0" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B942" s="4" t="s">
         <v>5</v>
@@ -10734,7 +10762,7 @@
     </row>
     <row r="943" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="0" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B943" s="4" t="s">
         <v>5</v>
@@ -10742,7 +10770,7 @@
     </row>
     <row r="944" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="0" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B944" s="4" t="s">
         <v>5</v>
@@ -10750,7 +10778,7 @@
     </row>
     <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="0" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B945" s="4" t="s">
         <v>5</v>
@@ -10758,7 +10786,7 @@
     </row>
     <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="0" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B946" s="4" t="s">
         <v>5</v>
@@ -10766,7 +10794,7 @@
     </row>
     <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B947" s="4" t="s">
         <v>5</v>
@@ -10774,7 +10802,7 @@
     </row>
     <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B948" s="4" t="s">
         <v>5</v>
@@ -10782,7 +10810,7 @@
     </row>
     <row r="949" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="0" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B949" s="4" t="s">
         <v>5</v>
@@ -10790,7 +10818,7 @@
     </row>
     <row r="950" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="0" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B950" s="4" t="s">
         <v>5</v>
@@ -10798,7 +10826,7 @@
     </row>
     <row r="951" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="0" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B951" s="4" t="s">
         <v>5</v>
@@ -10806,7 +10834,7 @@
     </row>
     <row r="952" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B952" s="4" t="s">
         <v>3</v>
@@ -10814,7 +10842,7 @@
     </row>
     <row r="953" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B953" s="4" t="s">
         <v>3</v>
@@ -10822,7 +10850,7 @@
     </row>
     <row r="954" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B954" s="4" t="s">
         <v>3</v>
@@ -10830,7 +10858,7 @@
     </row>
     <row r="955" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B955" s="4" t="s">
         <v>5</v>
@@ -10838,7 +10866,7 @@
     </row>
     <row r="956" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B956" s="4" t="s">
         <v>5</v>
@@ -10846,7 +10874,7 @@
     </row>
     <row r="957" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B957" s="4" t="s">
         <v>5</v>
@@ -10854,7 +10882,7 @@
     </row>
     <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B958" s="4" t="s">
         <v>5</v>
@@ -10862,7 +10890,7 @@
     </row>
     <row r="959" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B959" s="4" t="s">
         <v>5</v>
@@ -10870,7 +10898,7 @@
     </row>
     <row r="960" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B960" s="4" t="s">
         <v>5</v>
@@ -10878,7 +10906,7 @@
     </row>
     <row r="961" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B961" s="4" t="s">
         <v>5</v>
@@ -10886,7 +10914,7 @@
     </row>
     <row r="962" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="0" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B962" s="4" t="s">
         <v>5</v>
@@ -10894,7 +10922,7 @@
     </row>
     <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="0" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B963" s="4" t="s">
         <v>5</v>
@@ -10902,7 +10930,7 @@
     </row>
     <row r="964" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="0" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B964" s="4" t="s">
         <v>5</v>
@@ -10910,7 +10938,7 @@
     </row>
     <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B965" s="4" t="s">
         <v>5</v>
@@ -10918,7 +10946,7 @@
     </row>
     <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B966" s="4" t="s">
         <v>5</v>
@@ -10926,7 +10954,7 @@
     </row>
     <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="0" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B967" s="4" t="s">
         <v>5</v>
@@ -10934,7 +10962,7 @@
     </row>
     <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B968" s="4" t="s">
         <v>5</v>
@@ -10942,7 +10970,7 @@
     </row>
     <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="0" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B969" s="4" t="s">
         <v>5</v>
@@ -10950,7 +10978,7 @@
     </row>
     <row r="970" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="0" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B970" s="4" t="s">
         <v>5</v>
@@ -10958,7 +10986,7 @@
     </row>
     <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="0" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B971" s="4" t="s">
         <v>5</v>
@@ -10966,7 +10994,7 @@
     </row>
     <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B972" s="4" t="s">
         <v>5</v>
@@ -10974,7 +11002,7 @@
     </row>
     <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="0" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B973" s="4" t="s">
         <v>5</v>
@@ -10982,7 +11010,7 @@
     </row>
     <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="0" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B974" s="4" t="s">
         <v>5</v>
@@ -10990,7 +11018,7 @@
     </row>
     <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="0" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B975" s="4" t="s">
         <v>5</v>
@@ -10998,7 +11026,7 @@
     </row>
     <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="0" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B976" s="4" t="s">
         <v>5</v>
@@ -11006,7 +11034,7 @@
     </row>
     <row r="977" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="0" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B977" s="4" t="s">
         <v>5</v>
@@ -11014,7 +11042,7 @@
     </row>
     <row r="978" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B978" s="4" t="s">
         <v>5</v>
@@ -11022,7 +11050,7 @@
     </row>
     <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="0" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B979" s="4" t="s">
         <v>5</v>
@@ -11030,7 +11058,7 @@
     </row>
     <row r="980" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="0" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B980" s="4" t="s">
         <v>5</v>
@@ -11038,7 +11066,7 @@
     </row>
     <row r="981" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="0" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B981" s="4" t="s">
         <v>5</v>
@@ -11046,7 +11074,7 @@
     </row>
     <row r="982" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="0" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B982" s="4" t="s">
         <v>5</v>
@@ -11054,7 +11082,7 @@
     </row>
     <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="0" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B983" s="4" t="s">
         <v>5</v>
@@ -11062,7 +11090,7 @@
     </row>
     <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="0" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B984" s="4" t="s">
         <v>5</v>
@@ -11070,7 +11098,7 @@
     </row>
     <row r="985" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="0" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B985" s="4" t="s">
         <v>5</v>
@@ -11086,7 +11114,7 @@
     </row>
     <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="0" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B987" s="4" t="s">
         <v>5</v>
@@ -11094,7 +11122,7 @@
     </row>
     <row r="988" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="0" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B988" s="4" t="s">
         <v>5</v>
@@ -11102,7 +11130,7 @@
     </row>
     <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="0" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B989" s="4" t="s">
         <v>5</v>
@@ -11110,7 +11138,7 @@
     </row>
     <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="0" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B990" s="4" t="s">
         <v>5</v>
@@ -11118,7 +11146,7 @@
     </row>
     <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="0" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B991" s="4" t="s">
         <v>5</v>
@@ -11126,7 +11154,7 @@
     </row>
     <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="0" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B992" s="4" t="s">
         <v>5</v>
@@ -11134,7 +11162,7 @@
     </row>
     <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="0" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B993" s="4" t="s">
         <v>5</v>
@@ -11142,7 +11170,7 @@
     </row>
     <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="0" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B994" s="4" t="s">
         <v>5</v>
@@ -11150,7 +11178,7 @@
     </row>
     <row r="995" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="0" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B995" s="4" t="s">
         <v>5</v>
@@ -11158,7 +11186,7 @@
     </row>
     <row r="996" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="0" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B996" s="4" t="s">
         <v>5</v>
@@ -11166,7 +11194,7 @@
     </row>
     <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="0" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B997" s="4" t="s">
         <v>5</v>
@@ -11174,7 +11202,7 @@
     </row>
     <row r="998" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="0" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B998" s="4" t="s">
         <v>5</v>
@@ -11182,7 +11210,7 @@
     </row>
     <row r="999" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="0" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B999" s="4" t="s">
         <v>5</v>
@@ -11190,7 +11218,7 @@
     </row>
     <row r="1000" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="0" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B1000" s="4" t="s">
         <v>5</v>
@@ -11198,7 +11226,7 @@
     </row>
     <row r="1001" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="0" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B1001" s="4" t="s">
         <v>5</v>
@@ -11206,7 +11234,7 @@
     </row>
     <row r="1002" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="4" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B1002" s="4" t="s">
         <v>5</v>
@@ -11214,149 +11242,166 @@
     </row>
     <row r="1003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="0" t="s">
-        <v>969</v>
-      </c>
-      <c r="B1003" s="0" t="s">
-        <v>970</v>
+        <v>968</v>
+      </c>
+      <c r="B1003" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="0" t="s">
-        <v>971</v>
-      </c>
-      <c r="B1004" s="0" t="s">
-        <v>970</v>
+        <v>969</v>
+      </c>
+      <c r="B1004" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="0" t="s">
-        <v>972</v>
-      </c>
-      <c r="B1005" s="0" t="s">
         <v>970</v>
+      </c>
+      <c r="B1005" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="s">
-        <v>973</v>
-      </c>
-      <c r="B1006" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
+      </c>
+      <c r="B1006" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
-        <v>974</v>
-      </c>
-      <c r="B1007" s="0" t="s">
-        <v>970</v>
+        <v>972</v>
+      </c>
+      <c r="B1007" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="0" t="s">
-        <v>975</v>
-      </c>
-      <c r="B1008" s="0" t="s">
-        <v>970</v>
+        <v>973</v>
+      </c>
+      <c r="B1008" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="0" t="s">
-        <v>976</v>
-      </c>
-      <c r="B1009" s="0" t="s">
-        <v>970</v>
+        <v>974</v>
+      </c>
+      <c r="B1009" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B1010" s="0" t="s">
-        <v>970</v>
+        <v>975</v>
+      </c>
+      <c r="B1010" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B1011" s="0" t="s">
-        <v>979</v>
+        <v>142</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="B1012" s="0" t="s">
-        <v>970</v>
+        <v>977</v>
+      </c>
+      <c r="B1012" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="0" t="s">
-        <v>981</v>
-      </c>
-      <c r="B1013" s="0" t="s">
-        <v>970</v>
+        <v>978</v>
+      </c>
+      <c r="B1013" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="0" t="s">
-        <v>982</v>
-      </c>
-      <c r="B1014" s="0" t="s">
-        <v>970</v>
+        <v>979</v>
+      </c>
+      <c r="B1014" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="0" t="s">
-        <v>983</v>
-      </c>
-      <c r="B1015" s="0" t="s">
-        <v>970</v>
+        <v>980</v>
+      </c>
+      <c r="B1015" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="0" t="s">
-        <v>984</v>
-      </c>
-      <c r="B1016" s="0" t="s">
-        <v>970</v>
+        <v>981</v>
+      </c>
+      <c r="B1016" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="0" t="s">
-        <v>985</v>
-      </c>
-      <c r="B1017" s="0" t="s">
-        <v>970</v>
+        <v>982</v>
+      </c>
+      <c r="B1017" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="0" t="s">
-        <v>986</v>
-      </c>
-      <c r="B1018" s="0" t="s">
-        <v>970</v>
+        <v>983</v>
+      </c>
+      <c r="B1018" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="0" t="s">
-        <v>987</v>
-      </c>
-      <c r="B1019" s="0" t="s">
-        <v>970</v>
+        <v>984</v>
+      </c>
+      <c r="B1019" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="0" t="s">
-        <v>988</v>
-      </c>
-      <c r="B1020" s="0" t="s">
-        <v>970</v>
+        <v>985</v>
+      </c>
+      <c r="B1020" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1021" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1021" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="B1021" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1022" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="B1022" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B1021"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -11364,5 +11409,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/DBA/Reportes BI/2021/Facturación/tipo_financiador.xlsx
+++ b/DBA/Reportes BI/2021/Facturación/tipo_financiador.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="1005">
   <si>
     <t xml:space="preserve">Financiador</t>
   </si>
@@ -2987,6 +2987,57 @@
   </si>
   <si>
     <t xml:space="preserve">COBOT - OBRA SOCIAL CABOT ARGENTINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONEXION SALUD - CONEXION SALUD SRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSPIC SANTA FE - OBRA SOCIAL DEL PERSONAL DE LA INDUSTRIA DEL CAUCHO DE SANTA FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANATORIO GREYT - SANATORIO GREYTON S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCLUIR TIERRA - INCLUIR SALUD TIERRA DEL FUEGO ANTARTIDA E ISLAS DEL ATLANTICO SUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERMED S.A. (LA - GERMED S.A. (LA PEQUEÑA FAMILIA MEDICINA PREPAGA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOSE - INSTITUTO OBRA SOCIAL DEL EJERCITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMBRACE SRL - EMBRACE SRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APSOT - OBRA SOCIAL ASOCIACION DEL PERSONAL SUPERIOR DE LA ORGANIZACION TECHINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTAL BRITANICO - Plan de Salud Hospital Britanico de Bs. As.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'- CAJA DE PREV. SOCIAL DE PROF. DE ING. DE SANTA FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSPA VIAL - OBRA SOCIAL DEL PERSONAL DE LA ACTIVIDAD VIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQUITATIVA DEL - LA EQUITATIVA DEL PLATA SA DE SEGUROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGROSALTA COOP. - AGROSALTA COOP. SEGUROS LIMITADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEST DOCTORS IN - BEST DOCTORS INSURANCE SERVICES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FESTIQYPRA - OBRA SOCIAL DEL PERSONAL DE LA FEDERACION DE SINDICATOS DE LA INDUSTRIA QUIMICA Y PETROQUIMICA DE LA REPUBLICA ARGENTINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INST MED MODELO - PRESTACIONES MEDICAS INTEGRALES - INSTITUTO MEDICO MODELO S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- CAJA DE PREV. SOCIAL DE PROF. DE ING. DE SANTA FE</t>
   </si>
 </sst>
 </file>
@@ -3212,13 +3263,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1022"/>
+  <dimension ref="A1:B1039"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1000" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1026" activeCellId="0" sqref="B1026"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1014" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1043" activeCellId="0" sqref="A1043"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="145.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.71"/>
@@ -11397,6 +11448,142 @@
         <v>987</v>
       </c>
       <c r="B1022" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1023" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="B1023" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1024" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1024" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="B1024" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1025" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="B1025" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1026" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="B1026" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1027" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="B1027" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1028" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1028" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="B1028" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1029" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="B1029" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1030" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="B1030" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1031" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1031" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1032" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1032" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1033" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="B1033" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1034" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="B1034" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1035" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1035" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B1035" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1036" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1036" s="0" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B1036" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1037" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B1037" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1038" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1038" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B1038" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1039" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1039" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1039" s="4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/DBA/Reportes BI/2021/Facturación/tipo_financiador.xlsx
+++ b/DBA/Reportes BI/2021/Facturación/tipo_financiador.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$B$1021</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$B$1069</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="1028">
   <si>
     <t xml:space="preserve">Financiador</t>
   </si>
@@ -3038,6 +3038,75 @@
   </si>
   <si>
     <t xml:space="preserve">- CAJA DE PREV. SOCIAL DE PROF. DE ING. DE SANTA FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRINIDAD - SANATORIO DE LA TRINIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'- SECRETARIA DE DESARROLLO SOCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- SECRETARIA DE DESARROLLO SOCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCLUIR SALUD CORDOBA - INCLUIR SALUD CORDOBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELEGACION METR - DELEGACION METROPOLITANA S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCLUIR SALUD CHUBUT - INCLUIR SALUD CHUBUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIEMPOMEDICO - TIEMPO MEDICO S.R.L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'- UNIDAD DE GESTIO OPERATIVA FERROVIARIA DE EMERGENC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDICINA ESENCI - MEDICINA ESENCIAL S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCLUIR OTROS - INCLUIR SALUD OTROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMPSI - ASOCIACION MUTUAL DE PSICOLOGOS AMPSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREMEDIC - GRUPO PREMEDIC S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINIST.SALUD SA - MINISTERIO DE SALUD PUBLICA DEL GOBIERNO DE LA PROVINCIA DE SALTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERCANTIL ANDIN - COMPAÃ‘ÃA DE SEGUROS LA MERCANTIL ANDINA S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSUL.BOLIVIA - CONSULADO GENERAL DE BOLIVIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS PORTUARIOS P - OBRA SOCIAL PORTUARIOS DE PUERTO SAN MARTIN Y BELLA VISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBRA SOCIAL DE DIRECCION WITCE - OBRA SOCIAL DE DIRECCION WITCEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCHCAPE SHIPPI - INCHCAPE SHIPPING SERVICES ARGENTINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCIA SALUD HTAL - PROVINCIA SALUD HOSPITAL FRANCES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSUL.UCRANIA - CONSULADO GENERAL DE UCRANIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUZ ART SA - LUZ ART SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSPAISM - OBRA SOCIAL DEL PERSONAL DEL AZUCAR INGENIO SAN MARTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERCANTIL ANDIN - COMPAÑÍA DE SEGUROS LA MERCANTIL ANDINA S.A.</t>
   </si>
 </sst>
 </file>
@@ -3087,7 +3156,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3098,6 +3167,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB9B8B8"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -3137,7 +3212,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3158,6 +3233,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3167,11 +3246,18 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB9B8B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3263,13 +3349,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1039"/>
+  <dimension ref="A1:B1069"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1014" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1043" activeCellId="0" sqref="A1043"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="145.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.71"/>
@@ -11587,8 +11673,248 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1040" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1040" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="B1040" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1041" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1041" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B1041" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1042" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1042" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B1042" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="1043" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1043" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B1043" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="1044" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1044" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B1044" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1045" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1045" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B1045" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1046" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1046" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B1046" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1047" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1047" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B1047" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1048" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1048" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B1048" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1049" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1049" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1049" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1050" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1050" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B1050" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1051" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1051" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B1051" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1052" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1052" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1052" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1053" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1053" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B1053" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1054" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1054" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B1054" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1055" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1055" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1055" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1056" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1056" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B1056" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1057" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1057" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1057" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1058" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1058" s="0" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B1058" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1059" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1059" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1059" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1060" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1060" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B1060" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1061" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1061" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B1061" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1062" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1062" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1062" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1063" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1063" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B1063" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1064" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1064" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B1064" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1065" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1065" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B1065" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1066" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1066" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="B1066" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1067" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1067" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B1067" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1068" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1068" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1068" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1069" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1069" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1069" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1021"/>
+  <autoFilter ref="A1:B1069"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
